--- a/expenditure2022.xlsx
+++ b/expenditure2022.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elaine Mary Rose\Desktop\Expenditure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elaine Mary Rose\Desktop\PowerBI Expenditure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32820816-ED84-401C-B206-557E67B8D3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF712920-6353-4387-BCE0-FA71931BA5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{9F9DC66F-677F-4B4C-A462-629B9E49E9C8}"/>
   </bookViews>
@@ -1062,7 +1062,7 @@
   <dimension ref="A1:J499"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="A8" sqref="A8:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1112,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="7" t="str">
-        <f>TEXT(WEEKDAY(A2),"ddd")</f>
+        <f t="shared" ref="C2:C65" si="0">TEXT(WEEKDAY(A2),"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -1141,7 +1141,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="7" t="str">
-        <f>TEXT(WEEKDAY(A3),"ddd")</f>
+        <f t="shared" si="0"/>
         <v>Sun</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -1166,11 +1166,11 @@
         <v>44565</v>
       </c>
       <c r="B4" s="7">
-        <f t="shared" ref="B4:B67" si="0">WEEKNUM(A4)</f>
+        <f t="shared" ref="B4:B67" si="1">WEEKNUM(A4)</f>
         <v>2</v>
       </c>
       <c r="C4" s="7" t="str">
-        <f>TEXT(WEEKDAY(A4),"ddd")</f>
+        <f t="shared" si="0"/>
         <v>Tue</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -1195,11 +1195,11 @@
         <v>44567</v>
       </c>
       <c r="B5" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C5" s="7" t="str">
-        <f>TEXT(WEEKDAY(A5),"ddd")</f>
         <v>Thu</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -1225,11 +1225,11 @@
         <v>44568</v>
       </c>
       <c r="B6" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C6" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C6" s="7" t="str">
-        <f>TEXT(WEEKDAY(A6),"ddd")</f>
         <v>Fri</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -1254,11 +1254,11 @@
         <v>44570</v>
       </c>
       <c r="B7" s="7">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C7" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C7" s="7" t="str">
-        <f>TEXT(WEEKDAY(A7),"ddd")</f>
         <v>Sun</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -1283,11 +1283,11 @@
         <v>44571</v>
       </c>
       <c r="B8" s="7">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C8" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C8" s="7" t="str">
-        <f>TEXT(WEEKDAY(A8),"ddd")</f>
         <v>Mon</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -1312,11 +1312,11 @@
         <v>44571</v>
       </c>
       <c r="B9" s="7">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C9" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C9" s="7" t="str">
-        <f>TEXT(WEEKDAY(A9),"ddd")</f>
         <v>Mon</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -1342,11 +1342,11 @@
         <v>44571</v>
       </c>
       <c r="B10" s="7">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C10" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C10" s="7" t="str">
-        <f>TEXT(WEEKDAY(A10),"ddd")</f>
         <v>Mon</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -1372,11 +1372,11 @@
         <v>44571</v>
       </c>
       <c r="B11" s="7">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C11" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C11" s="7" t="str">
-        <f>TEXT(WEEKDAY(A11),"ddd")</f>
         <v>Mon</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -1401,11 +1401,11 @@
         <v>44572</v>
       </c>
       <c r="B12" s="7">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C12" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C12" s="7" t="str">
-        <f>TEXT(WEEKDAY(A12),"ddd")</f>
         <v>Tue</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -1431,11 +1431,11 @@
         <v>44573</v>
       </c>
       <c r="B13" s="7">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C13" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C13" s="7" t="str">
-        <f>TEXT(WEEKDAY(A13),"ddd")</f>
         <v>Wed</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -1460,11 +1460,11 @@
         <v>44573</v>
       </c>
       <c r="B14" s="7">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C14" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C14" s="7" t="str">
-        <f>TEXT(WEEKDAY(A14),"ddd")</f>
         <v>Wed</v>
       </c>
       <c r="D14" s="7" t="s">
@@ -1490,11 +1490,11 @@
         <v>44574</v>
       </c>
       <c r="B15" s="7">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C15" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C15" s="7" t="str">
-        <f>TEXT(WEEKDAY(A15),"ddd")</f>
         <v>Thu</v>
       </c>
       <c r="D15" s="7" t="s">
@@ -1519,11 +1519,11 @@
         <v>44575</v>
       </c>
       <c r="B16" s="7">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C16" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C16" s="7" t="str">
-        <f>TEXT(WEEKDAY(A16),"ddd")</f>
         <v>Fri</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -1548,11 +1548,11 @@
         <v>44576</v>
       </c>
       <c r="B17" s="7">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C17" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C17" s="7" t="str">
-        <f>TEXT(WEEKDAY(A17),"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="D17" s="7" t="s">
@@ -1577,11 +1577,11 @@
         <v>44578</v>
       </c>
       <c r="B18" s="7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C18" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C18" s="7" t="str">
-        <f>TEXT(WEEKDAY(A18),"ddd")</f>
         <v>Mon</v>
       </c>
       <c r="D18" s="7" t="s">
@@ -1607,11 +1607,11 @@
         <v>44578</v>
       </c>
       <c r="B19" s="7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C19" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C19" s="7" t="str">
-        <f>TEXT(WEEKDAY(A19),"ddd")</f>
         <v>Mon</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -1636,11 +1636,11 @@
         <v>44580</v>
       </c>
       <c r="B20" s="7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C20" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C20" s="7" t="str">
-        <f>TEXT(WEEKDAY(A20),"ddd")</f>
         <v>Wed</v>
       </c>
       <c r="D20" s="7" t="s">
@@ -1665,11 +1665,11 @@
         <v>44581</v>
       </c>
       <c r="B21" s="7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C21" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C21" s="7" t="str">
-        <f>TEXT(WEEKDAY(A21),"ddd")</f>
         <v>Thu</v>
       </c>
       <c r="D21" s="7" t="s">
@@ -1694,11 +1694,11 @@
         <v>44581</v>
       </c>
       <c r="B22" s="7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C22" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C22" s="7" t="str">
-        <f>TEXT(WEEKDAY(A22),"ddd")</f>
         <v>Thu</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -1723,11 +1723,11 @@
         <v>44582</v>
       </c>
       <c r="B23" s="7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C23" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C23" s="7" t="str">
-        <f>TEXT(WEEKDAY(A23),"ddd")</f>
         <v>Fri</v>
       </c>
       <c r="D23" s="7" t="s">
@@ -1753,11 +1753,11 @@
         <v>44583</v>
       </c>
       <c r="B24" s="7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C24" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C24" s="7" t="str">
-        <f>TEXT(WEEKDAY(A24),"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="D24" s="7" t="s">
@@ -1782,11 +1782,11 @@
         <v>44584</v>
       </c>
       <c r="B25" s="7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C25" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C25" s="7" t="str">
-        <f>TEXT(WEEKDAY(A25),"ddd")</f>
         <v>Sun</v>
       </c>
       <c r="D25" s="7" t="s">
@@ -1812,11 +1812,11 @@
         <v>44584</v>
       </c>
       <c r="B26" s="7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C26" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C26" s="7" t="str">
-        <f>TEXT(WEEKDAY(A26),"ddd")</f>
         <v>Sun</v>
       </c>
       <c r="D26" s="7" t="s">
@@ -1842,11 +1842,11 @@
         <v>44585</v>
       </c>
       <c r="B27" s="7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C27" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C27" s="7" t="str">
-        <f>TEXT(WEEKDAY(A27),"ddd")</f>
         <v>Mon</v>
       </c>
       <c r="D27" s="7" t="s">
@@ -1872,11 +1872,11 @@
         <v>44585</v>
       </c>
       <c r="B28" s="7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C28" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C28" s="7" t="str">
-        <f>TEXT(WEEKDAY(A28),"ddd")</f>
         <v>Mon</v>
       </c>
       <c r="D28" s="7" t="s">
@@ -1902,11 +1902,11 @@
         <v>44587</v>
       </c>
       <c r="B29" s="7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C29" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C29" s="7" t="str">
-        <f>TEXT(WEEKDAY(A29),"ddd")</f>
         <v>Wed</v>
       </c>
       <c r="D29" s="7" t="s">
@@ -1932,11 +1932,11 @@
         <v>44588</v>
       </c>
       <c r="B30" s="7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C30" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C30" s="7" t="str">
-        <f>TEXT(WEEKDAY(A30),"ddd")</f>
         <v>Thu</v>
       </c>
       <c r="D30" s="7" t="s">
@@ -1961,11 +1961,11 @@
         <v>44591</v>
       </c>
       <c r="B31" s="7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C31" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C31" s="7" t="str">
-        <f>TEXT(WEEKDAY(A31),"ddd")</f>
         <v>Sun</v>
       </c>
       <c r="D31" s="7" t="s">
@@ -1990,11 +1990,11 @@
         <v>44591</v>
       </c>
       <c r="B32" s="7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C32" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C32" s="7" t="str">
-        <f>TEXT(WEEKDAY(A32),"ddd")</f>
         <v>Sun</v>
       </c>
       <c r="D32" s="7" t="s">
@@ -2019,11 +2019,11 @@
         <v>44593</v>
       </c>
       <c r="B33" s="7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C33" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C33" s="7" t="str">
-        <f>TEXT(WEEKDAY(A33),"ddd")</f>
         <v>Tue</v>
       </c>
       <c r="D33" s="7" t="s">
@@ -2048,11 +2048,11 @@
         <v>44594</v>
       </c>
       <c r="B34" s="7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C34" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C34" s="7" t="str">
-        <f>TEXT(WEEKDAY(A34),"ddd")</f>
         <v>Wed</v>
       </c>
       <c r="D34" s="7" t="s">
@@ -2078,11 +2078,11 @@
         <v>44596</v>
       </c>
       <c r="B35" s="7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C35" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C35" s="7" t="str">
-        <f>TEXT(WEEKDAY(A35),"ddd")</f>
         <v>Fri</v>
       </c>
       <c r="D35" s="7" t="s">
@@ -2108,11 +2108,11 @@
         <v>44596</v>
       </c>
       <c r="B36" s="7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C36" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C36" s="7" t="str">
-        <f>TEXT(WEEKDAY(A36),"ddd")</f>
         <v>Fri</v>
       </c>
       <c r="D36" s="7" t="s">
@@ -2137,11 +2137,11 @@
         <v>44597</v>
       </c>
       <c r="B37" s="7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C37" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C37" s="7" t="str">
-        <f>TEXT(WEEKDAY(A37),"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="D37" s="7" t="s">
@@ -2166,11 +2166,11 @@
         <v>44598</v>
       </c>
       <c r="B38" s="7">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C38" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C38" s="7" t="str">
-        <f>TEXT(WEEKDAY(A38),"ddd")</f>
         <v>Sun</v>
       </c>
       <c r="D38" s="7" t="s">
@@ -2196,11 +2196,11 @@
         <v>44598</v>
       </c>
       <c r="B39" s="7">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C39" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C39" s="7" t="str">
-        <f>TEXT(WEEKDAY(A39),"ddd")</f>
         <v>Sun</v>
       </c>
       <c r="D39" s="7" t="s">
@@ -2225,11 +2225,11 @@
         <v>44600</v>
       </c>
       <c r="B40" s="7">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C40" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C40" s="7" t="str">
-        <f>TEXT(WEEKDAY(A40),"ddd")</f>
         <v>Tue</v>
       </c>
       <c r="D40" s="7" t="s">
@@ -2254,11 +2254,11 @@
         <v>44602</v>
       </c>
       <c r="B41" s="7">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C41" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C41" s="7" t="str">
-        <f>TEXT(WEEKDAY(A41),"ddd")</f>
         <v>Thu</v>
       </c>
       <c r="D41" s="7" t="s">
@@ -2284,11 +2284,11 @@
         <v>44602</v>
       </c>
       <c r="B42" s="7">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C42" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C42" s="7" t="str">
-        <f>TEXT(WEEKDAY(A42),"ddd")</f>
         <v>Thu</v>
       </c>
       <c r="D42" s="7" t="s">
@@ -2313,11 +2313,11 @@
         <v>44602</v>
       </c>
       <c r="B43" s="7">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C43" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C43" s="7" t="str">
-        <f>TEXT(WEEKDAY(A43),"ddd")</f>
         <v>Thu</v>
       </c>
       <c r="D43" s="7" t="s">
@@ -2342,11 +2342,11 @@
         <v>44603</v>
       </c>
       <c r="B44" s="7">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C44" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C44" s="7" t="str">
-        <f>TEXT(WEEKDAY(A44),"ddd")</f>
         <v>Fri</v>
       </c>
       <c r="D44" s="7" t="s">
@@ -2371,11 +2371,11 @@
         <v>44603</v>
       </c>
       <c r="B45" s="7">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C45" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C45" s="7" t="str">
-        <f>TEXT(WEEKDAY(A45),"ddd")</f>
         <v>Fri</v>
       </c>
       <c r="D45" s="7" t="s">
@@ -2400,11 +2400,11 @@
         <v>44606</v>
       </c>
       <c r="B46" s="7">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C46" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C46" s="7" t="str">
-        <f>TEXT(WEEKDAY(A46),"ddd")</f>
         <v>Mon</v>
       </c>
       <c r="D46" s="7" t="s">
@@ -2429,11 +2429,11 @@
         <v>44606</v>
       </c>
       <c r="B47" s="7">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C47" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C47" s="7" t="str">
-        <f>TEXT(WEEKDAY(A47),"ddd")</f>
         <v>Mon</v>
       </c>
       <c r="D47" s="7" t="s">
@@ -2459,11 +2459,11 @@
         <v>44607</v>
       </c>
       <c r="B48" s="7">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C48" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C48" s="7" t="str">
-        <f>TEXT(WEEKDAY(A48),"ddd")</f>
         <v>Tue</v>
       </c>
       <c r="D48" s="7" t="s">
@@ -2488,11 +2488,11 @@
         <v>44608</v>
       </c>
       <c r="B49" s="7">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C49" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C49" s="7" t="str">
-        <f>TEXT(WEEKDAY(A49),"ddd")</f>
         <v>Wed</v>
       </c>
       <c r="D49" s="7" t="s">
@@ -2517,11 +2517,11 @@
         <v>44608</v>
       </c>
       <c r="B50" s="7">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C50" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C50" s="7" t="str">
-        <f>TEXT(WEEKDAY(A50),"ddd")</f>
         <v>Wed</v>
       </c>
       <c r="D50" s="7" t="s">
@@ -2546,11 +2546,11 @@
         <v>44608</v>
       </c>
       <c r="B51" s="7">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C51" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C51" s="7" t="str">
-        <f>TEXT(WEEKDAY(A51),"ddd")</f>
         <v>Wed</v>
       </c>
       <c r="D51" s="7" t="s">
@@ -2575,11 +2575,11 @@
         <v>44609</v>
       </c>
       <c r="B52" s="7">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C52" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C52" s="7" t="str">
-        <f>TEXT(WEEKDAY(A52),"ddd")</f>
         <v>Thu</v>
       </c>
       <c r="D52" s="7" t="s">
@@ -2605,11 +2605,11 @@
         <v>44610</v>
       </c>
       <c r="B53" s="7">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C53" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C53" s="7" t="str">
-        <f>TEXT(WEEKDAY(A53),"ddd")</f>
         <v>Fri</v>
       </c>
       <c r="D53" s="7" t="s">
@@ -2635,11 +2635,11 @@
         <v>44610</v>
       </c>
       <c r="B54" s="7">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C54" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C54" s="7" t="str">
-        <f>TEXT(WEEKDAY(A54),"ddd")</f>
         <v>Fri</v>
       </c>
       <c r="D54" s="7" t="s">
@@ -2665,11 +2665,11 @@
         <v>44611</v>
       </c>
       <c r="B55" s="7">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C55" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C55" s="7" t="str">
-        <f>TEXT(WEEKDAY(A55),"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="D55" s="7" t="s">
@@ -2694,11 +2694,11 @@
         <v>44612</v>
       </c>
       <c r="B56" s="7">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C56" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C56" s="7" t="str">
-        <f>TEXT(WEEKDAY(A56),"ddd")</f>
         <v>Sun</v>
       </c>
       <c r="D56" s="7" t="s">
@@ -2723,11 +2723,11 @@
         <v>44613</v>
       </c>
       <c r="B57" s="7">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C57" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C57" s="7" t="str">
-        <f>TEXT(WEEKDAY(A57),"ddd")</f>
         <v>Mon</v>
       </c>
       <c r="D57" s="7" t="s">
@@ -2753,11 +2753,11 @@
         <v>44613</v>
       </c>
       <c r="B58" s="7">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C58" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C58" s="7" t="str">
-        <f>TEXT(WEEKDAY(A58),"ddd")</f>
         <v>Mon</v>
       </c>
       <c r="D58" s="7" t="s">
@@ -2782,11 +2782,11 @@
         <v>44614</v>
       </c>
       <c r="B59" s="7">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C59" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C59" s="7" t="str">
-        <f>TEXT(WEEKDAY(A59),"ddd")</f>
         <v>Tue</v>
       </c>
       <c r="D59" s="7" t="s">
@@ -2812,11 +2812,11 @@
         <v>44614</v>
       </c>
       <c r="B60" s="7">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C60" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C60" s="7" t="str">
-        <f>TEXT(WEEKDAY(A60),"ddd")</f>
         <v>Tue</v>
       </c>
       <c r="D60" s="7" t="s">
@@ -2842,11 +2842,11 @@
         <v>44614</v>
       </c>
       <c r="B61" s="7">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C61" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C61" s="7" t="str">
-        <f>TEXT(WEEKDAY(A61),"ddd")</f>
         <v>Tue</v>
       </c>
       <c r="D61" s="7" t="s">
@@ -2871,11 +2871,11 @@
         <v>44614</v>
       </c>
       <c r="B62" s="7">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C62" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C62" s="7" t="str">
-        <f>TEXT(WEEKDAY(A62),"ddd")</f>
         <v>Tue</v>
       </c>
       <c r="D62" s="7" t="s">
@@ -2900,11 +2900,11 @@
         <v>44615</v>
       </c>
       <c r="B63" s="7">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C63" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C63" s="7" t="str">
-        <f>TEXT(WEEKDAY(A63),"ddd")</f>
         <v>Wed</v>
       </c>
       <c r="D63" s="7" t="s">
@@ -2930,11 +2930,11 @@
         <v>44615</v>
       </c>
       <c r="B64" s="7">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C64" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C64" s="7" t="str">
-        <f>TEXT(WEEKDAY(A64),"ddd")</f>
         <v>Wed</v>
       </c>
       <c r="D64" s="7" t="s">
@@ -2960,11 +2960,11 @@
         <v>44616</v>
       </c>
       <c r="B65" s="7">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C65" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C65" s="7" t="str">
-        <f>TEXT(WEEKDAY(A65),"ddd")</f>
         <v>Thu</v>
       </c>
       <c r="D65" s="7" t="s">
@@ -2989,11 +2989,11 @@
         <v>44616</v>
       </c>
       <c r="B66" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="C66" s="7" t="str">
-        <f>TEXT(WEEKDAY(A66),"ddd")</f>
+        <f t="shared" ref="C66:C129" si="2">TEXT(WEEKDAY(A66),"ddd")</f>
         <v>Thu</v>
       </c>
       <c r="D66" s="7" t="s">
@@ -3018,11 +3018,11 @@
         <v>44618</v>
       </c>
       <c r="B67" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="C67" s="7" t="str">
-        <f>TEXT(WEEKDAY(A67),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="D67" s="7" t="s">
@@ -3047,11 +3047,11 @@
         <v>44619</v>
       </c>
       <c r="B68" s="7">
-        <f t="shared" ref="B68:B131" si="1">WEEKNUM(A68)</f>
+        <f t="shared" ref="B68:B131" si="3">WEEKNUM(A68)</f>
         <v>10</v>
       </c>
       <c r="C68" s="7" t="str">
-        <f>TEXT(WEEKDAY(A68),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Sun</v>
       </c>
       <c r="D68" s="7" t="s">
@@ -3077,11 +3077,11 @@
         <v>44619</v>
       </c>
       <c r="B69" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="C69" s="7" t="str">
-        <f>TEXT(WEEKDAY(A69),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Sun</v>
       </c>
       <c r="D69" s="7" t="s">
@@ -3106,11 +3106,11 @@
         <v>44619</v>
       </c>
       <c r="B70" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="C70" s="7" t="str">
-        <f>TEXT(WEEKDAY(A70),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Sun</v>
       </c>
       <c r="D70" s="7" t="s">
@@ -3135,11 +3135,11 @@
         <v>44619</v>
       </c>
       <c r="B71" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="C71" s="7" t="str">
-        <f>TEXT(WEEKDAY(A71),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Sun</v>
       </c>
       <c r="D71" s="7" t="s">
@@ -3164,11 +3164,11 @@
         <v>44619</v>
       </c>
       <c r="B72" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="C72" s="7" t="str">
-        <f>TEXT(WEEKDAY(A72),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Sun</v>
       </c>
       <c r="D72" s="7" t="s">
@@ -3193,11 +3193,11 @@
         <v>44619</v>
       </c>
       <c r="B73" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="C73" s="7" t="str">
-        <f>TEXT(WEEKDAY(A73),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Sun</v>
       </c>
       <c r="D73" s="7" t="s">
@@ -3222,11 +3222,11 @@
         <v>44619</v>
       </c>
       <c r="B74" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="C74" s="7" t="str">
-        <f>TEXT(WEEKDAY(A74),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Sun</v>
       </c>
       <c r="D74" s="7" t="s">
@@ -3251,11 +3251,11 @@
         <v>44620</v>
       </c>
       <c r="B75" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="C75" s="7" t="str">
-        <f>TEXT(WEEKDAY(A75),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Mon</v>
       </c>
       <c r="D75" s="7" t="s">
@@ -3281,11 +3281,11 @@
         <v>44624</v>
       </c>
       <c r="B76" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="C76" s="7" t="str">
-        <f>TEXT(WEEKDAY(A76),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Fri</v>
       </c>
       <c r="D76" s="7" t="s">
@@ -3311,11 +3311,11 @@
         <v>44627</v>
       </c>
       <c r="B77" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="C77" s="7" t="str">
-        <f>TEXT(WEEKDAY(A77),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Mon</v>
       </c>
       <c r="D77" s="7" t="s">
@@ -3341,11 +3341,11 @@
         <v>44627</v>
       </c>
       <c r="B78" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="C78" s="7" t="str">
-        <f>TEXT(WEEKDAY(A78),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Mon</v>
       </c>
       <c r="D78" s="7" t="s">
@@ -3371,11 +3371,11 @@
         <v>44627</v>
       </c>
       <c r="B79" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="C79" s="7" t="str">
-        <f>TEXT(WEEKDAY(A79),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Mon</v>
       </c>
       <c r="D79" s="7" t="s">
@@ -3400,11 +3400,11 @@
         <v>44627</v>
       </c>
       <c r="B80" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="C80" s="7" t="str">
-        <f>TEXT(WEEKDAY(A80),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Mon</v>
       </c>
       <c r="D80" s="7" t="s">
@@ -3430,11 +3430,11 @@
         <v>44629</v>
       </c>
       <c r="B81" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="C81" s="7" t="str">
-        <f>TEXT(WEEKDAY(A81),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Wed</v>
       </c>
       <c r="D81" s="7" t="s">
@@ -3459,11 +3459,11 @@
         <v>44629</v>
       </c>
       <c r="B82" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="C82" s="7" t="str">
-        <f>TEXT(WEEKDAY(A82),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Wed</v>
       </c>
       <c r="D82" s="7" t="s">
@@ -3488,11 +3488,11 @@
         <v>44629</v>
       </c>
       <c r="B83" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="C83" s="7" t="str">
-        <f>TEXT(WEEKDAY(A83),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Wed</v>
       </c>
       <c r="D83" s="7" t="s">
@@ -3518,11 +3518,11 @@
         <v>44630</v>
       </c>
       <c r="B84" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="C84" s="7" t="str">
-        <f>TEXT(WEEKDAY(A84),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Thu</v>
       </c>
       <c r="D84" s="7" t="s">
@@ -3547,11 +3547,11 @@
         <v>44631</v>
       </c>
       <c r="B85" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="C85" s="7" t="str">
-        <f>TEXT(WEEKDAY(A85),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Fri</v>
       </c>
       <c r="D85" s="7" t="s">
@@ -3577,11 +3577,11 @@
         <v>44632</v>
       </c>
       <c r="B86" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="C86" s="7" t="str">
-        <f>TEXT(WEEKDAY(A86),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="D86" s="7" t="s">
@@ -3606,11 +3606,11 @@
         <v>44632</v>
       </c>
       <c r="B87" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="C87" s="7" t="str">
-        <f>TEXT(WEEKDAY(A87),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="D87" s="7" t="s">
@@ -3635,11 +3635,11 @@
         <v>44634</v>
       </c>
       <c r="B88" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="C88" s="7" t="str">
-        <f>TEXT(WEEKDAY(A88),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Mon</v>
       </c>
       <c r="D88" s="7" t="s">
@@ -3664,11 +3664,11 @@
         <v>44634</v>
       </c>
       <c r="B89" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="C89" s="7" t="str">
-        <f>TEXT(WEEKDAY(A89),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Mon</v>
       </c>
       <c r="D89" s="7" t="s">
@@ -3693,11 +3693,11 @@
         <v>44634</v>
       </c>
       <c r="B90" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="C90" s="7" t="str">
-        <f>TEXT(WEEKDAY(A90),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Mon</v>
       </c>
       <c r="D90" s="7" t="s">
@@ -3723,11 +3723,11 @@
         <v>44636</v>
       </c>
       <c r="B91" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="C91" s="7" t="str">
-        <f>TEXT(WEEKDAY(A91),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Wed</v>
       </c>
       <c r="D91" s="7" t="s">
@@ -3753,11 +3753,11 @@
         <v>44636</v>
       </c>
       <c r="B92" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="C92" s="7" t="str">
-        <f>TEXT(WEEKDAY(A92),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Wed</v>
       </c>
       <c r="D92" s="7" t="s">
@@ -3783,11 +3783,11 @@
         <v>44636</v>
       </c>
       <c r="B93" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="C93" s="7" t="str">
-        <f>TEXT(WEEKDAY(A93),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Wed</v>
       </c>
       <c r="D93" s="7" t="s">
@@ -3812,11 +3812,11 @@
         <v>44637</v>
       </c>
       <c r="B94" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="C94" s="7" t="str">
-        <f>TEXT(WEEKDAY(A94),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Thu</v>
       </c>
       <c r="D94" s="7" t="s">
@@ -3841,11 +3841,11 @@
         <v>44637</v>
       </c>
       <c r="B95" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="C95" s="7" t="str">
-        <f>TEXT(WEEKDAY(A95),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Thu</v>
       </c>
       <c r="D95" s="7" t="s">
@@ -3870,11 +3870,11 @@
         <v>44640</v>
       </c>
       <c r="B96" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="C96" s="7" t="str">
-        <f>TEXT(WEEKDAY(A96),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Sun</v>
       </c>
       <c r="D96" s="7" t="s">
@@ -3900,11 +3900,11 @@
         <v>44641</v>
       </c>
       <c r="B97" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="C97" s="7" t="str">
-        <f>TEXT(WEEKDAY(A97),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Mon</v>
       </c>
       <c r="D97" s="7" t="s">
@@ -3930,11 +3930,11 @@
         <v>44642</v>
       </c>
       <c r="B98" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="C98" s="7" t="str">
-        <f>TEXT(WEEKDAY(A98),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Tue</v>
       </c>
       <c r="D98" s="7" t="s">
@@ -3959,11 +3959,11 @@
         <v>44643</v>
       </c>
       <c r="B99" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="C99" s="7" t="str">
-        <f>TEXT(WEEKDAY(A99),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Wed</v>
       </c>
       <c r="D99" s="7" t="s">
@@ -3989,11 +3989,11 @@
         <v>44643</v>
       </c>
       <c r="B100" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="C100" s="7" t="str">
-        <f>TEXT(WEEKDAY(A100),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Wed</v>
       </c>
       <c r="D100" s="7" t="s">
@@ -4019,11 +4019,11 @@
         <v>44644</v>
       </c>
       <c r="B101" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="C101" s="7" t="str">
-        <f>TEXT(WEEKDAY(A101),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Thu</v>
       </c>
       <c r="D101" s="7" t="s">
@@ -4049,11 +4049,11 @@
         <v>44644</v>
       </c>
       <c r="B102" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="C102" s="7" t="str">
-        <f>TEXT(WEEKDAY(A102),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Thu</v>
       </c>
       <c r="D102" s="7" t="s">
@@ -4079,11 +4079,11 @@
         <v>44646</v>
       </c>
       <c r="B103" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="C103" s="7" t="str">
-        <f>TEXT(WEEKDAY(A103),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="D103" s="7" t="s">
@@ -4108,11 +4108,11 @@
         <v>44647</v>
       </c>
       <c r="B104" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="C104" s="7" t="str">
-        <f>TEXT(WEEKDAY(A104),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Sun</v>
       </c>
       <c r="D104" s="7" t="s">
@@ -4138,11 +4138,11 @@
         <v>44648</v>
       </c>
       <c r="B105" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="C105" s="7" t="str">
-        <f>TEXT(WEEKDAY(A105),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Mon</v>
       </c>
       <c r="D105" s="7" t="s">
@@ -4168,11 +4168,11 @@
         <v>44649</v>
       </c>
       <c r="B106" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="C106" s="7" t="str">
-        <f>TEXT(WEEKDAY(A106),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Tue</v>
       </c>
       <c r="D106" s="7" t="s">
@@ -4197,11 +4197,11 @@
         <v>44652</v>
       </c>
       <c r="B107" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="C107" s="7" t="str">
-        <f>TEXT(WEEKDAY(A107),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Fri</v>
       </c>
       <c r="D107" s="7" t="s">
@@ -4226,11 +4226,11 @@
         <v>44652</v>
       </c>
       <c r="B108" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="C108" s="7" t="str">
-        <f>TEXT(WEEKDAY(A108),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Fri</v>
       </c>
       <c r="D108" s="7" t="s">
@@ -4255,11 +4255,11 @@
         <v>44653</v>
       </c>
       <c r="B109" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="C109" s="7" t="str">
-        <f>TEXT(WEEKDAY(A109),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="D109" s="7" t="s">
@@ -4285,11 +4285,11 @@
         <v>44654</v>
       </c>
       <c r="B110" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="C110" s="7" t="str">
-        <f>TEXT(WEEKDAY(A110),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Sun</v>
       </c>
       <c r="D110" s="7" t="s">
@@ -4315,11 +4315,11 @@
         <v>44655</v>
       </c>
       <c r="B111" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="C111" s="7" t="str">
-        <f>TEXT(WEEKDAY(A111),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Mon</v>
       </c>
       <c r="D111" s="7" t="s">
@@ -4345,11 +4345,11 @@
         <v>44655</v>
       </c>
       <c r="B112" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="C112" s="7" t="str">
-        <f>TEXT(WEEKDAY(A112),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Mon</v>
       </c>
       <c r="D112" s="7" t="s">
@@ -4375,11 +4375,11 @@
         <v>44655</v>
       </c>
       <c r="B113" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="C113" s="7" t="str">
-        <f>TEXT(WEEKDAY(A113),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Mon</v>
       </c>
       <c r="D113" s="7" t="s">
@@ -4404,11 +4404,11 @@
         <v>44655</v>
       </c>
       <c r="B114" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="C114" s="7" t="str">
-        <f>TEXT(WEEKDAY(A114),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Mon</v>
       </c>
       <c r="D114" s="7" t="s">
@@ -4433,11 +4433,11 @@
         <v>44655</v>
       </c>
       <c r="B115" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="C115" s="7" t="str">
-        <f>TEXT(WEEKDAY(A115),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Mon</v>
       </c>
       <c r="D115" s="7" t="s">
@@ -4463,11 +4463,11 @@
         <v>44656</v>
       </c>
       <c r="B116" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="C116" s="7" t="str">
-        <f>TEXT(WEEKDAY(A116),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Tue</v>
       </c>
       <c r="D116" s="7" t="s">
@@ -4492,11 +4492,11 @@
         <v>44656</v>
       </c>
       <c r="B117" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="C117" s="7" t="str">
-        <f>TEXT(WEEKDAY(A117),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Tue</v>
       </c>
       <c r="D117" s="7" t="s">
@@ -4521,11 +4521,11 @@
         <v>44657</v>
       </c>
       <c r="B118" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="C118" s="7" t="str">
-        <f>TEXT(WEEKDAY(A118),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Wed</v>
       </c>
       <c r="D118" s="7" t="s">
@@ -4550,11 +4550,11 @@
         <v>44657</v>
       </c>
       <c r="B119" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="C119" s="7" t="str">
-        <f>TEXT(WEEKDAY(A119),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Wed</v>
       </c>
       <c r="D119" s="7" t="s">
@@ -4579,11 +4579,11 @@
         <v>44658</v>
       </c>
       <c r="B120" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="C120" s="7" t="str">
-        <f>TEXT(WEEKDAY(A120),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Thu</v>
       </c>
       <c r="D120" s="7" t="s">
@@ -4609,11 +4609,11 @@
         <v>44658</v>
       </c>
       <c r="B121" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="C121" s="7" t="str">
-        <f>TEXT(WEEKDAY(A121),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Thu</v>
       </c>
       <c r="D121" s="7" t="s">
@@ -4639,11 +4639,11 @@
         <v>44658</v>
       </c>
       <c r="B122" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="C122" s="7" t="str">
-        <f>TEXT(WEEKDAY(A122),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Thu</v>
       </c>
       <c r="D122" s="7" t="s">
@@ -4669,11 +4669,11 @@
         <v>44658</v>
       </c>
       <c r="B123" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="C123" s="7" t="str">
-        <f>TEXT(WEEKDAY(A123),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Thu</v>
       </c>
       <c r="D123" s="7" t="s">
@@ -4699,11 +4699,11 @@
         <v>44661</v>
       </c>
       <c r="B124" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="C124" s="7" t="str">
-        <f>TEXT(WEEKDAY(A124),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Sun</v>
       </c>
       <c r="D124" s="7" t="s">
@@ -4728,11 +4728,11 @@
         <v>44661</v>
       </c>
       <c r="B125" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="C125" s="7" t="str">
-        <f>TEXT(WEEKDAY(A125),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Sun</v>
       </c>
       <c r="D125" s="7" t="s">
@@ -4758,11 +4758,11 @@
         <v>44662</v>
       </c>
       <c r="B126" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="C126" s="7" t="str">
-        <f>TEXT(WEEKDAY(A126),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Mon</v>
       </c>
       <c r="D126" s="7" t="s">
@@ -4787,11 +4787,11 @@
         <v>44662</v>
       </c>
       <c r="B127" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="C127" s="7" t="str">
-        <f>TEXT(WEEKDAY(A127),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Mon</v>
       </c>
       <c r="D127" s="7" t="s">
@@ -4804,7 +4804,7 @@
         <v>13</v>
       </c>
       <c r="G127" s="7" t="str">
-        <f>D127</f>
+        <f t="shared" ref="G127:G132" si="4">D127</f>
         <v>Tesco</v>
       </c>
       <c r="H127" s="7" t="s">
@@ -4817,11 +4817,11 @@
         <v>44662</v>
       </c>
       <c r="B128" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="C128" s="7" t="str">
-        <f>TEXT(WEEKDAY(A128),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Mon</v>
       </c>
       <c r="D128" s="7" t="s">
@@ -4834,7 +4834,7 @@
         <v>13</v>
       </c>
       <c r="G128" s="7" t="str">
-        <f>D128</f>
+        <f t="shared" si="4"/>
         <v>Aihua</v>
       </c>
       <c r="H128" s="7" t="s">
@@ -4847,11 +4847,11 @@
         <v>44662</v>
       </c>
       <c r="B129" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="C129" s="7" t="str">
-        <f>TEXT(WEEKDAY(A129),"ddd")</f>
+        <f t="shared" si="2"/>
         <v>Mon</v>
       </c>
       <c r="D129" s="7" t="s">
@@ -4864,7 +4864,7 @@
         <v>13</v>
       </c>
       <c r="G129" s="7" t="str">
-        <f>D129</f>
+        <f t="shared" si="4"/>
         <v>Sainsbury</v>
       </c>
       <c r="H129" s="7" t="s">
@@ -4877,11 +4877,11 @@
         <v>44662</v>
       </c>
       <c r="B130" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="C130" s="7" t="str">
-        <f>TEXT(WEEKDAY(A130),"ddd")</f>
+        <f t="shared" ref="C130:C193" si="5">TEXT(WEEKDAY(A130),"ddd")</f>
         <v>Mon</v>
       </c>
       <c r="D130" s="7" t="s">
@@ -4894,7 +4894,7 @@
         <v>13</v>
       </c>
       <c r="G130" s="7" t="str">
-        <f>D130</f>
+        <f t="shared" si="4"/>
         <v>Rahmans</v>
       </c>
       <c r="H130" s="7" t="s">
@@ -4907,11 +4907,11 @@
         <v>44663</v>
       </c>
       <c r="B131" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="C131" s="7" t="str">
-        <f>TEXT(WEEKDAY(A131),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Tue</v>
       </c>
       <c r="D131" s="7" t="s">
@@ -4924,7 +4924,7 @@
         <v>13</v>
       </c>
       <c r="G131" s="7" t="str">
-        <f>D131</f>
+        <f t="shared" si="4"/>
         <v>Lidl</v>
       </c>
       <c r="H131" s="7" t="s">
@@ -4937,11 +4937,11 @@
         <v>44663</v>
       </c>
       <c r="B132" s="7">
-        <f t="shared" ref="B132:B195" si="2">WEEKNUM(A132)</f>
+        <f t="shared" ref="B132:B195" si="6">WEEKNUM(A132)</f>
         <v>16</v>
       </c>
       <c r="C132" s="7" t="str">
-        <f>TEXT(WEEKDAY(A132),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Tue</v>
       </c>
       <c r="D132" s="7" t="s">
@@ -4954,7 +4954,7 @@
         <v>13</v>
       </c>
       <c r="G132" s="7" t="str">
-        <f>D132</f>
+        <f t="shared" si="4"/>
         <v>Tesco</v>
       </c>
       <c r="H132" s="7" t="s">
@@ -4967,11 +4967,11 @@
         <v>44664</v>
       </c>
       <c r="B133" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="C133" s="7" t="str">
-        <f>TEXT(WEEKDAY(A133),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Wed</v>
       </c>
       <c r="D133" s="7" t="s">
@@ -4996,11 +4996,11 @@
         <v>44664</v>
       </c>
       <c r="B134" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="C134" s="7" t="str">
-        <f>TEXT(WEEKDAY(A134),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Wed</v>
       </c>
       <c r="D134" s="7" t="s">
@@ -5026,11 +5026,11 @@
         <v>44664</v>
       </c>
       <c r="B135" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="C135" s="7" t="str">
-        <f>TEXT(WEEKDAY(A135),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Wed</v>
       </c>
       <c r="D135" s="7" t="s">
@@ -5055,11 +5055,11 @@
         <v>44665</v>
       </c>
       <c r="B136" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="C136" s="7" t="str">
-        <f>TEXT(WEEKDAY(A136),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Thu</v>
       </c>
       <c r="D136" s="7" t="s">
@@ -5085,11 +5085,11 @@
         <v>44668</v>
       </c>
       <c r="B137" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="C137" s="7" t="str">
-        <f>TEXT(WEEKDAY(A137),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Sun</v>
       </c>
       <c r="D137" s="7" t="s">
@@ -5114,11 +5114,11 @@
         <v>44668</v>
       </c>
       <c r="B138" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="C138" s="7" t="str">
-        <f>TEXT(WEEKDAY(A138),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Sun</v>
       </c>
       <c r="D138" s="7" t="s">
@@ -5143,11 +5143,11 @@
         <v>44670</v>
       </c>
       <c r="B139" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="C139" s="7" t="str">
-        <f>TEXT(WEEKDAY(A139),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Tue</v>
       </c>
       <c r="D139" s="7" t="s">
@@ -5173,11 +5173,11 @@
         <v>44670</v>
       </c>
       <c r="B140" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="C140" s="7" t="str">
-        <f>TEXT(WEEKDAY(A140),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Tue</v>
       </c>
       <c r="D140" s="7" t="s">
@@ -5202,11 +5202,11 @@
         <v>44670</v>
       </c>
       <c r="B141" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="C141" s="7" t="str">
-        <f>TEXT(WEEKDAY(A141),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Tue</v>
       </c>
       <c r="D141" s="7" t="s">
@@ -5232,11 +5232,11 @@
         <v>44672</v>
       </c>
       <c r="B142" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="C142" s="7" t="str">
-        <f>TEXT(WEEKDAY(A142),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Thu</v>
       </c>
       <c r="D142" s="7" t="s">
@@ -5262,11 +5262,11 @@
         <v>44672</v>
       </c>
       <c r="B143" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="C143" s="7" t="str">
-        <f>TEXT(WEEKDAY(A143),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Thu</v>
       </c>
       <c r="D143" s="7" t="s">
@@ -5292,11 +5292,11 @@
         <v>44672</v>
       </c>
       <c r="B144" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="C144" s="7" t="str">
-        <f>TEXT(WEEKDAY(A144),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Thu</v>
       </c>
       <c r="D144" s="7" t="s">
@@ -5322,11 +5322,11 @@
         <v>44672</v>
       </c>
       <c r="B145" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="C145" s="7" t="str">
-        <f>TEXT(WEEKDAY(A145),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Thu</v>
       </c>
       <c r="D145" s="7" t="s">
@@ -5352,11 +5352,11 @@
         <v>44672</v>
       </c>
       <c r="B146" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="C146" s="7" t="str">
-        <f>TEXT(WEEKDAY(A146),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Thu</v>
       </c>
       <c r="D146" s="7" t="s">
@@ -5381,11 +5381,11 @@
         <v>44675</v>
       </c>
       <c r="B147" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="C147" s="7" t="str">
-        <f>TEXT(WEEKDAY(A147),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Sun</v>
       </c>
       <c r="D147" s="7" t="s">
@@ -5411,11 +5411,11 @@
         <v>44676</v>
       </c>
       <c r="B148" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="C148" s="7" t="str">
-        <f>TEXT(WEEKDAY(A148),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Mon</v>
       </c>
       <c r="D148" s="7" t="s">
@@ -5440,11 +5440,11 @@
         <v>44676</v>
       </c>
       <c r="B149" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="C149" s="7" t="str">
-        <f>TEXT(WEEKDAY(A149),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Mon</v>
       </c>
       <c r="D149" s="7" t="s">
@@ -5469,11 +5469,11 @@
         <v>44676</v>
       </c>
       <c r="B150" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="C150" s="7" t="str">
-        <f>TEXT(WEEKDAY(A150),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Mon</v>
       </c>
       <c r="D150" s="7" t="s">
@@ -5498,11 +5498,11 @@
         <v>44676</v>
       </c>
       <c r="B151" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="C151" s="7" t="str">
-        <f>TEXT(WEEKDAY(A151),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Mon</v>
       </c>
       <c r="D151" s="7" t="s">
@@ -5527,11 +5527,11 @@
         <v>44676</v>
       </c>
       <c r="B152" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="C152" s="7" t="str">
-        <f>TEXT(WEEKDAY(A152),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Mon</v>
       </c>
       <c r="D152" s="7" t="s">
@@ -5556,11 +5556,11 @@
         <v>44676</v>
       </c>
       <c r="B153" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="C153" s="7" t="str">
-        <f>TEXT(WEEKDAY(A153),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Mon</v>
       </c>
       <c r="D153" s="7" t="s">
@@ -5585,11 +5585,11 @@
         <v>44676</v>
       </c>
       <c r="B154" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="C154" s="7" t="str">
-        <f>TEXT(WEEKDAY(A154),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Mon</v>
       </c>
       <c r="D154" s="7" t="s">
@@ -5614,11 +5614,11 @@
         <v>44678</v>
       </c>
       <c r="B155" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="C155" s="7" t="str">
-        <f>TEXT(WEEKDAY(A155),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Wed</v>
       </c>
       <c r="D155" s="7" t="s">
@@ -5644,11 +5644,11 @@
         <v>44679</v>
       </c>
       <c r="B156" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="C156" s="7" t="str">
-        <f>TEXT(WEEKDAY(A156),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Thu</v>
       </c>
       <c r="D156" s="7" t="s">
@@ -5673,11 +5673,11 @@
         <v>44680</v>
       </c>
       <c r="B157" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="C157" s="7" t="str">
-        <f>TEXT(WEEKDAY(A157),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Fri</v>
       </c>
       <c r="D157" s="7" t="s">
@@ -5703,11 +5703,11 @@
         <v>44682</v>
       </c>
       <c r="B158" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="C158" s="7" t="str">
-        <f>TEXT(WEEKDAY(A158),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Sun</v>
       </c>
       <c r="D158" s="7" t="s">
@@ -5733,11 +5733,11 @@
         <v>44682</v>
       </c>
       <c r="B159" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="C159" s="7" t="str">
-        <f>TEXT(WEEKDAY(A159),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Sun</v>
       </c>
       <c r="D159" s="7" t="s">
@@ -5763,11 +5763,11 @@
         <v>44682</v>
       </c>
       <c r="B160" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="C160" s="7" t="str">
-        <f>TEXT(WEEKDAY(A160),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Sun</v>
       </c>
       <c r="D160" s="7" t="s">
@@ -5793,11 +5793,11 @@
         <v>44683</v>
       </c>
       <c r="B161" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="C161" s="7" t="str">
-        <f>TEXT(WEEKDAY(A161),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Mon</v>
       </c>
       <c r="D161" s="7" t="s">
@@ -5822,11 +5822,11 @@
         <v>44684</v>
       </c>
       <c r="B162" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="C162" s="7" t="str">
-        <f>TEXT(WEEKDAY(A162),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Tue</v>
       </c>
       <c r="D162" s="7" t="s">
@@ -5851,11 +5851,11 @@
         <v>44685</v>
       </c>
       <c r="B163" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="C163" s="7" t="str">
-        <f>TEXT(WEEKDAY(A163),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Wed</v>
       </c>
       <c r="D163" s="7" t="s">
@@ -5880,11 +5880,11 @@
         <v>44685</v>
       </c>
       <c r="B164" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="C164" s="7" t="str">
-        <f>TEXT(WEEKDAY(A164),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Wed</v>
       </c>
       <c r="D164" s="7" t="s">
@@ -5910,11 +5910,11 @@
         <v>44685</v>
       </c>
       <c r="B165" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="C165" s="7" t="str">
-        <f>TEXT(WEEKDAY(A165),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Wed</v>
       </c>
       <c r="D165" s="7" t="s">
@@ -5939,11 +5939,11 @@
         <v>44686</v>
       </c>
       <c r="B166" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="C166" s="7" t="str">
-        <f>TEXT(WEEKDAY(A166),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Thu</v>
       </c>
       <c r="D166" s="7" t="s">
@@ -5969,11 +5969,11 @@
         <v>44687</v>
       </c>
       <c r="B167" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="C167" s="7" t="str">
-        <f>TEXT(WEEKDAY(A167),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Fri</v>
       </c>
       <c r="D167" s="7" t="s">
@@ -5999,11 +5999,11 @@
         <v>44687</v>
       </c>
       <c r="B168" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="C168" s="7" t="str">
-        <f>TEXT(WEEKDAY(A168),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Fri</v>
       </c>
       <c r="D168" s="7" t="s">
@@ -6029,11 +6029,11 @@
         <v>44689</v>
       </c>
       <c r="B169" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="C169" s="7" t="str">
-        <f>TEXT(WEEKDAY(A169),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Sun</v>
       </c>
       <c r="D169" s="7" t="s">
@@ -6058,11 +6058,11 @@
         <v>44690</v>
       </c>
       <c r="B170" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="C170" s="7" t="str">
-        <f>TEXT(WEEKDAY(A170),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Mon</v>
       </c>
       <c r="D170" s="7" t="s">
@@ -6087,11 +6087,11 @@
         <v>44690</v>
       </c>
       <c r="B171" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="C171" s="7" t="str">
-        <f>TEXT(WEEKDAY(A171),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Mon</v>
       </c>
       <c r="D171" s="7" t="s">
@@ -6117,11 +6117,11 @@
         <v>44690</v>
       </c>
       <c r="B172" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="C172" s="7" t="str">
-        <f>TEXT(WEEKDAY(A172),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Mon</v>
       </c>
       <c r="D172" s="7" t="s">
@@ -6147,11 +6147,11 @@
         <v>44691</v>
       </c>
       <c r="B173" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="C173" s="7" t="str">
-        <f>TEXT(WEEKDAY(A173),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Tue</v>
       </c>
       <c r="D173" s="7" t="s">
@@ -6176,11 +6176,11 @@
         <v>44691</v>
       </c>
       <c r="B174" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="C174" s="7" t="str">
-        <f>TEXT(WEEKDAY(A174),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Tue</v>
       </c>
       <c r="D174" s="7" t="s">
@@ -6205,11 +6205,11 @@
         <v>44691</v>
       </c>
       <c r="B175" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="C175" s="7" t="str">
-        <f>TEXT(WEEKDAY(A175),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Tue</v>
       </c>
       <c r="D175" s="7" t="s">
@@ -6234,11 +6234,11 @@
         <v>44691</v>
       </c>
       <c r="B176" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="C176" s="7" t="str">
-        <f>TEXT(WEEKDAY(A176),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Tue</v>
       </c>
       <c r="D176" s="7" t="s">
@@ -6264,11 +6264,11 @@
         <v>44691</v>
       </c>
       <c r="B177" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="C177" s="7" t="str">
-        <f>TEXT(WEEKDAY(A177),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Tue</v>
       </c>
       <c r="D177" s="7" t="s">
@@ -6293,11 +6293,11 @@
         <v>44693</v>
       </c>
       <c r="B178" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="C178" s="7" t="str">
-        <f>TEXT(WEEKDAY(A178),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Thu</v>
       </c>
       <c r="D178" s="7" t="s">
@@ -6322,11 +6322,11 @@
         <v>44695</v>
       </c>
       <c r="B179" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="C179" s="7" t="str">
-        <f>TEXT(WEEKDAY(A179),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Sat</v>
       </c>
       <c r="D179" s="7" t="s">
@@ -6351,11 +6351,11 @@
         <v>44696</v>
       </c>
       <c r="B180" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="C180" s="7" t="str">
-        <f>TEXT(WEEKDAY(A180),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Sun</v>
       </c>
       <c r="D180" s="7" t="s">
@@ -6381,11 +6381,11 @@
         <v>44696</v>
       </c>
       <c r="B181" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="C181" s="7" t="str">
-        <f>TEXT(WEEKDAY(A181),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Sun</v>
       </c>
       <c r="D181" s="7" t="s">
@@ -6411,11 +6411,11 @@
         <v>44698</v>
       </c>
       <c r="B182" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="C182" s="7" t="str">
-        <f>TEXT(WEEKDAY(A182),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Tue</v>
       </c>
       <c r="D182" s="7" t="s">
@@ -6440,11 +6440,11 @@
         <v>44699</v>
       </c>
       <c r="B183" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="C183" s="7" t="str">
-        <f>TEXT(WEEKDAY(A183),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Wed</v>
       </c>
       <c r="D183" s="7" t="s">
@@ -6470,11 +6470,11 @@
         <v>44699</v>
       </c>
       <c r="B184" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="C184" s="7" t="str">
-        <f>TEXT(WEEKDAY(A184),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Wed</v>
       </c>
       <c r="D184" s="7" t="s">
@@ -6500,11 +6500,11 @@
         <v>44699</v>
       </c>
       <c r="B185" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="C185" s="7" t="str">
-        <f>TEXT(WEEKDAY(A185),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Wed</v>
       </c>
       <c r="D185" s="7" t="s">
@@ -6530,11 +6530,11 @@
         <v>44700</v>
       </c>
       <c r="B186" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="C186" s="7" t="str">
-        <f>TEXT(WEEKDAY(A186),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Thu</v>
       </c>
       <c r="D186" s="7" t="s">
@@ -6559,11 +6559,11 @@
         <v>44701</v>
       </c>
       <c r="B187" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="C187" s="7" t="str">
-        <f>TEXT(WEEKDAY(A187),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Fri</v>
       </c>
       <c r="D187" s="7" t="s">
@@ -6588,11 +6588,11 @@
         <v>44704</v>
       </c>
       <c r="B188" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="C188" s="7" t="str">
-        <f>TEXT(WEEKDAY(A188),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Mon</v>
       </c>
       <c r="D188" s="7" t="s">
@@ -6618,11 +6618,11 @@
         <v>44704</v>
       </c>
       <c r="B189" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="C189" s="7" t="str">
-        <f>TEXT(WEEKDAY(A189),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Mon</v>
       </c>
       <c r="D189" s="7" t="s">
@@ -6648,11 +6648,11 @@
         <v>44708</v>
       </c>
       <c r="B190" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="C190" s="7" t="str">
-        <f>TEXT(WEEKDAY(A190),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Fri</v>
       </c>
       <c r="D190" s="7" t="s">
@@ -6678,11 +6678,11 @@
         <v>44708</v>
       </c>
       <c r="B191" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="C191" s="7" t="str">
-        <f>TEXT(WEEKDAY(A191),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Fri</v>
       </c>
       <c r="D191" s="7" t="s">
@@ -6707,11 +6707,11 @@
         <v>44708</v>
       </c>
       <c r="B192" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="C192" s="7" t="str">
-        <f>TEXT(WEEKDAY(A192),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Fri</v>
       </c>
       <c r="D192" s="7" t="s">
@@ -6737,11 +6737,11 @@
         <v>44709</v>
       </c>
       <c r="B193" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="C193" s="7" t="str">
-        <f>TEXT(WEEKDAY(A193),"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Sat</v>
       </c>
       <c r="D193" s="7" t="s">
@@ -6766,11 +6766,11 @@
         <v>44710</v>
       </c>
       <c r="B194" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="C194" s="7" t="str">
-        <f>TEXT(WEEKDAY(A194),"ddd")</f>
+        <f t="shared" ref="C194:C257" si="7">TEXT(WEEKDAY(A194),"ddd")</f>
         <v>Sun</v>
       </c>
       <c r="D194" s="7" t="s">
@@ -6795,11 +6795,11 @@
         <v>44710</v>
       </c>
       <c r="B195" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="C195" s="7" t="str">
-        <f>TEXT(WEEKDAY(A195),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Sun</v>
       </c>
       <c r="D195" s="7" t="s">
@@ -6824,11 +6824,11 @@
         <v>44711</v>
       </c>
       <c r="B196" s="7">
-        <f t="shared" ref="B196:B259" si="3">WEEKNUM(A196)</f>
+        <f t="shared" ref="B196:B259" si="8">WEEKNUM(A196)</f>
         <v>23</v>
       </c>
       <c r="C196" s="7" t="str">
-        <f>TEXT(WEEKDAY(A196),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Mon</v>
       </c>
       <c r="D196" s="7" t="s">
@@ -6854,11 +6854,11 @@
         <v>44711</v>
       </c>
       <c r="B197" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="C197" s="7" t="str">
-        <f>TEXT(WEEKDAY(A197),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Mon</v>
       </c>
       <c r="D197" s="7" t="s">
@@ -6883,11 +6883,11 @@
         <v>44713</v>
       </c>
       <c r="B198" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="C198" s="7" t="str">
-        <f>TEXT(WEEKDAY(A198),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Wed</v>
       </c>
       <c r="D198" s="7" t="s">
@@ -6912,11 +6912,11 @@
         <v>44713</v>
       </c>
       <c r="B199" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="C199" s="7" t="str">
-        <f>TEXT(WEEKDAY(A199),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Wed</v>
       </c>
       <c r="D199" s="7" t="s">
@@ -6942,11 +6942,11 @@
         <v>44714</v>
       </c>
       <c r="B200" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="C200" s="7" t="str">
-        <f>TEXT(WEEKDAY(A200),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Thu</v>
       </c>
       <c r="D200" s="7" t="s">
@@ -6971,11 +6971,11 @@
         <v>44716</v>
       </c>
       <c r="B201" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="C201" s="7" t="str">
-        <f>TEXT(WEEKDAY(A201),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Sat</v>
       </c>
       <c r="D201" s="7" t="s">
@@ -7000,11 +7000,11 @@
         <v>44717</v>
       </c>
       <c r="B202" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="C202" s="7" t="str">
-        <f>TEXT(WEEKDAY(A202),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Sun</v>
       </c>
       <c r="D202" s="7" t="s">
@@ -7029,11 +7029,11 @@
         <v>44717</v>
       </c>
       <c r="B203" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="C203" s="7" t="str">
-        <f>TEXT(WEEKDAY(A203),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Sun</v>
       </c>
       <c r="D203" s="7" t="s">
@@ -7059,11 +7059,11 @@
         <v>44718</v>
       </c>
       <c r="B204" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="C204" s="7" t="str">
-        <f>TEXT(WEEKDAY(A204),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Mon</v>
       </c>
       <c r="D204" s="7" t="s">
@@ -7088,11 +7088,11 @@
         <v>44718</v>
       </c>
       <c r="B205" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="C205" s="7" t="str">
-        <f>TEXT(WEEKDAY(A205),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Mon</v>
       </c>
       <c r="D205" s="7" t="s">
@@ -7117,11 +7117,11 @@
         <v>44719</v>
       </c>
       <c r="B206" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="C206" s="7" t="str">
-        <f>TEXT(WEEKDAY(A206),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Tue</v>
       </c>
       <c r="D206" s="7" t="s">
@@ -7146,11 +7146,11 @@
         <v>44721</v>
       </c>
       <c r="B207" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="C207" s="7" t="str">
-        <f>TEXT(WEEKDAY(A207),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Thu</v>
       </c>
       <c r="D207" s="7" t="s">
@@ -7176,11 +7176,11 @@
         <v>44723</v>
       </c>
       <c r="B208" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="C208" s="7" t="str">
-        <f>TEXT(WEEKDAY(A208),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Sat</v>
       </c>
       <c r="D208" s="7" t="s">
@@ -7205,11 +7205,11 @@
         <v>44724</v>
       </c>
       <c r="B209" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="C209" s="7" t="str">
-        <f>TEXT(WEEKDAY(A209),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Sun</v>
       </c>
       <c r="D209" s="7" t="s">
@@ -7235,11 +7235,11 @@
         <v>44724</v>
       </c>
       <c r="B210" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="C210" s="7" t="str">
-        <f>TEXT(WEEKDAY(A210),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Sun</v>
       </c>
       <c r="D210" s="7" t="s">
@@ -7264,11 +7264,11 @@
         <v>44725</v>
       </c>
       <c r="B211" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="C211" s="7" t="str">
-        <f>TEXT(WEEKDAY(A211),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Mon</v>
       </c>
       <c r="D211" s="7" t="s">
@@ -7294,11 +7294,11 @@
         <v>44725</v>
       </c>
       <c r="B212" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="C212" s="7" t="str">
-        <f>TEXT(WEEKDAY(A212),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Mon</v>
       </c>
       <c r="D212" s="7" t="s">
@@ -7324,11 +7324,11 @@
         <v>44727</v>
       </c>
       <c r="B213" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="C213" s="7" t="str">
-        <f>TEXT(WEEKDAY(A213),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Wed</v>
       </c>
       <c r="D213" s="7" t="s">
@@ -7354,11 +7354,11 @@
         <v>44727</v>
       </c>
       <c r="B214" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="C214" s="7" t="str">
-        <f>TEXT(WEEKDAY(A214),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Wed</v>
       </c>
       <c r="D214" s="7" t="s">
@@ -7383,11 +7383,11 @@
         <v>44727</v>
       </c>
       <c r="B215" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="C215" s="7" t="str">
-        <f>TEXT(WEEKDAY(A215),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Wed</v>
       </c>
       <c r="D215" s="7" t="s">
@@ -7412,11 +7412,11 @@
         <v>44727</v>
       </c>
       <c r="B216" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="C216" s="7" t="str">
-        <f>TEXT(WEEKDAY(A216),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Wed</v>
       </c>
       <c r="D216" s="7" t="s">
@@ -7441,11 +7441,11 @@
         <v>44729</v>
       </c>
       <c r="B217" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="C217" s="7" t="str">
-        <f>TEXT(WEEKDAY(A217),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Fri</v>
       </c>
       <c r="D217" s="7" t="s">
@@ -7470,11 +7470,11 @@
         <v>44729</v>
       </c>
       <c r="B218" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="C218" s="7" t="str">
-        <f>TEXT(WEEKDAY(A218),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Fri</v>
       </c>
       <c r="D218" s="7" t="s">
@@ -7499,11 +7499,11 @@
         <v>44730</v>
       </c>
       <c r="B219" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="C219" s="7" t="str">
-        <f>TEXT(WEEKDAY(A219),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Sat</v>
       </c>
       <c r="D219" s="7" t="s">
@@ -7529,11 +7529,11 @@
         <v>44731</v>
       </c>
       <c r="B220" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="C220" s="7" t="str">
-        <f>TEXT(WEEKDAY(A220),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Sun</v>
       </c>
       <c r="D220" s="7" t="s">
@@ -7558,11 +7558,11 @@
         <v>44732</v>
       </c>
       <c r="B221" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="C221" s="7" t="str">
-        <f>TEXT(WEEKDAY(A221),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Mon</v>
       </c>
       <c r="D221" s="7" t="s">
@@ -7588,11 +7588,11 @@
         <v>44732</v>
       </c>
       <c r="B222" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="C222" s="7" t="str">
-        <f>TEXT(WEEKDAY(A222),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Mon</v>
       </c>
       <c r="D222" s="7" t="s">
@@ -7618,11 +7618,11 @@
         <v>44733</v>
       </c>
       <c r="B223" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="C223" s="7" t="str">
-        <f>TEXT(WEEKDAY(A223),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Tue</v>
       </c>
       <c r="D223" s="7" t="s">
@@ -7648,11 +7648,11 @@
         <v>44735</v>
       </c>
       <c r="B224" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="C224" s="7" t="str">
-        <f>TEXT(WEEKDAY(A224),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Thu</v>
       </c>
       <c r="D224" s="7" t="s">
@@ -7678,11 +7678,11 @@
         <v>44736</v>
       </c>
       <c r="B225" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="C225" s="7" t="str">
-        <f>TEXT(WEEKDAY(A225),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Fri</v>
       </c>
       <c r="D225" s="7" t="s">
@@ -7707,11 +7707,11 @@
         <v>44736</v>
       </c>
       <c r="B226" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="C226" s="7" t="str">
-        <f>TEXT(WEEKDAY(A226),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Fri</v>
       </c>
       <c r="D226" s="7" t="s">
@@ -7736,11 +7736,11 @@
         <v>44737</v>
       </c>
       <c r="B227" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="C227" s="7" t="str">
-        <f>TEXT(WEEKDAY(A227),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Sat</v>
       </c>
       <c r="D227" s="7" t="s">
@@ -7765,11 +7765,11 @@
         <v>44738</v>
       </c>
       <c r="B228" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="C228" s="7" t="str">
-        <f>TEXT(WEEKDAY(A228),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Sun</v>
       </c>
       <c r="D228" s="7" t="s">
@@ -7795,11 +7795,11 @@
         <v>44738</v>
       </c>
       <c r="B229" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="C229" s="7" t="str">
-        <f>TEXT(WEEKDAY(A229),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Sun</v>
       </c>
       <c r="D229" s="7" t="s">
@@ -7825,11 +7825,11 @@
         <v>44738</v>
       </c>
       <c r="B230" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="C230" s="7" t="str">
-        <f>TEXT(WEEKDAY(A230),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Sun</v>
       </c>
       <c r="D230" s="7" t="s">
@@ -7855,11 +7855,11 @@
         <v>44738</v>
       </c>
       <c r="B231" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="C231" s="7" t="str">
-        <f>TEXT(WEEKDAY(A231),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Sun</v>
       </c>
       <c r="D231" s="7" t="s">
@@ -7884,11 +7884,11 @@
         <v>44739</v>
       </c>
       <c r="B232" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="C232" s="7" t="str">
-        <f>TEXT(WEEKDAY(A232),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Mon</v>
       </c>
       <c r="D232" s="7" t="s">
@@ -7914,11 +7914,11 @@
         <v>44742</v>
       </c>
       <c r="B233" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="C233" s="7" t="str">
-        <f>TEXT(WEEKDAY(A233),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Thu</v>
       </c>
       <c r="D233" s="7" t="s">
@@ -7944,11 +7944,11 @@
         <v>44742</v>
       </c>
       <c r="B234" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="C234" s="7" t="str">
-        <f>TEXT(WEEKDAY(A234),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Thu</v>
       </c>
       <c r="D234" s="7" t="s">
@@ -7973,11 +7973,11 @@
         <v>44743</v>
       </c>
       <c r="B235" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="C235" s="7" t="str">
-        <f>TEXT(WEEKDAY(A235),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Fri</v>
       </c>
       <c r="D235" s="7" t="s">
@@ -8002,11 +8002,11 @@
         <v>44745</v>
       </c>
       <c r="B236" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="C236" s="7" t="str">
-        <f>TEXT(WEEKDAY(A236),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Sun</v>
       </c>
       <c r="D236" s="7" t="s">
@@ -8031,11 +8031,11 @@
         <v>44745</v>
       </c>
       <c r="B237" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="C237" s="7" t="str">
-        <f>TEXT(WEEKDAY(A237),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Sun</v>
       </c>
       <c r="D237" s="7" t="s">
@@ -8060,11 +8060,11 @@
         <v>44746</v>
       </c>
       <c r="B238" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="C238" s="7" t="str">
-        <f>TEXT(WEEKDAY(A238),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Mon</v>
       </c>
       <c r="D238" s="7" t="s">
@@ -8090,11 +8090,11 @@
         <v>44747</v>
       </c>
       <c r="B239" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="C239" s="7" t="str">
-        <f>TEXT(WEEKDAY(A239),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Tue</v>
       </c>
       <c r="D239" s="7" t="s">
@@ -8120,11 +8120,11 @@
         <v>44747</v>
       </c>
       <c r="B240" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="C240" s="7" t="str">
-        <f>TEXT(WEEKDAY(A240),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Tue</v>
       </c>
       <c r="D240" s="7" t="s">
@@ -8150,11 +8150,11 @@
         <v>44747</v>
       </c>
       <c r="B241" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="C241" s="7" t="str">
-        <f>TEXT(WEEKDAY(A241),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Tue</v>
       </c>
       <c r="D241" s="7" t="s">
@@ -8180,11 +8180,11 @@
         <v>44747</v>
       </c>
       <c r="B242" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="C242" s="7" t="str">
-        <f>TEXT(WEEKDAY(A242),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Tue</v>
       </c>
       <c r="D242" s="7" t="s">
@@ -8210,11 +8210,11 @@
         <v>44748</v>
       </c>
       <c r="B243" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="C243" s="7" t="str">
-        <f>TEXT(WEEKDAY(A243),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Wed</v>
       </c>
       <c r="D243" s="7" t="s">
@@ -8239,11 +8239,11 @@
         <v>44750</v>
       </c>
       <c r="B244" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="C244" s="7" t="str">
-        <f>TEXT(WEEKDAY(A244),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Fri</v>
       </c>
       <c r="D244" s="7" t="s">
@@ -8268,11 +8268,11 @@
         <v>44752</v>
       </c>
       <c r="B245" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
       <c r="C245" s="7" t="str">
-        <f>TEXT(WEEKDAY(A245),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Sun</v>
       </c>
       <c r="D245" s="7" t="s">
@@ -8297,11 +8297,11 @@
         <v>44752</v>
       </c>
       <c r="B246" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
       <c r="C246" s="7" t="str">
-        <f>TEXT(WEEKDAY(A246),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Sun</v>
       </c>
       <c r="D246" s="7" t="s">
@@ -8326,11 +8326,11 @@
         <v>44753</v>
       </c>
       <c r="B247" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
       <c r="C247" s="7" t="str">
-        <f>TEXT(WEEKDAY(A247),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Mon</v>
       </c>
       <c r="D247" s="7" t="s">
@@ -8356,11 +8356,11 @@
         <v>44753</v>
       </c>
       <c r="B248" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
       <c r="C248" s="7" t="str">
-        <f>TEXT(WEEKDAY(A248),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Mon</v>
       </c>
       <c r="D248" s="7" t="s">
@@ -8386,11 +8386,11 @@
         <v>44753</v>
       </c>
       <c r="B249" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
       <c r="C249" s="7" t="str">
-        <f>TEXT(WEEKDAY(A249),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Mon</v>
       </c>
       <c r="D249" s="7" t="s">
@@ -8416,11 +8416,11 @@
         <v>44754</v>
       </c>
       <c r="B250" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
       <c r="C250" s="7" t="str">
-        <f>TEXT(WEEKDAY(A250),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Tue</v>
       </c>
       <c r="D250" s="7" t="s">
@@ -8445,11 +8445,11 @@
         <v>44754</v>
       </c>
       <c r="B251" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
       <c r="C251" s="7" t="str">
-        <f>TEXT(WEEKDAY(A251),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Tue</v>
       </c>
       <c r="D251" s="7" t="s">
@@ -8474,11 +8474,11 @@
         <v>44754</v>
       </c>
       <c r="B252" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
       <c r="C252" s="7" t="str">
-        <f>TEXT(WEEKDAY(A252),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Tue</v>
       </c>
       <c r="D252" s="7" t="s">
@@ -8503,11 +8503,11 @@
         <v>44755</v>
       </c>
       <c r="B253" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
       <c r="C253" s="7" t="str">
-        <f>TEXT(WEEKDAY(A253),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Wed</v>
       </c>
       <c r="D253" s="7" t="s">
@@ -8532,11 +8532,11 @@
         <v>44755</v>
       </c>
       <c r="B254" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
       <c r="C254" s="7" t="str">
-        <f>TEXT(WEEKDAY(A254),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Wed</v>
       </c>
       <c r="D254" s="7" t="s">
@@ -8561,11 +8561,11 @@
         <v>44757</v>
       </c>
       <c r="B255" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
       <c r="C255" s="7" t="str">
-        <f>TEXT(WEEKDAY(A255),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Fri</v>
       </c>
       <c r="D255" s="7" t="s">
@@ -8591,11 +8591,11 @@
         <v>44758</v>
       </c>
       <c r="B256" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
       <c r="C256" s="7" t="str">
-        <f>TEXT(WEEKDAY(A256),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Sat</v>
       </c>
       <c r="D256" s="7" t="s">
@@ -8620,11 +8620,11 @@
         <v>44759</v>
       </c>
       <c r="B257" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="C257" s="7" t="str">
-        <f>TEXT(WEEKDAY(A257),"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Sun</v>
       </c>
       <c r="D257" s="7" t="s">
@@ -8649,11 +8649,11 @@
         <v>44759</v>
       </c>
       <c r="B258" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="C258" s="7" t="str">
-        <f>TEXT(WEEKDAY(A258),"ddd")</f>
+        <f t="shared" ref="C258:C321" si="9">TEXT(WEEKDAY(A258),"ddd")</f>
         <v>Sun</v>
       </c>
       <c r="D258" s="7" t="s">
@@ -8678,11 +8678,11 @@
         <v>44760</v>
       </c>
       <c r="B259" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="C259" s="7" t="str">
-        <f>TEXT(WEEKDAY(A259),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Mon</v>
       </c>
       <c r="D259" s="7" t="s">
@@ -8708,11 +8708,11 @@
         <v>44760</v>
       </c>
       <c r="B260" s="7">
-        <f t="shared" ref="B260:B323" si="4">WEEKNUM(A260)</f>
+        <f t="shared" ref="B260:B323" si="10">WEEKNUM(A260)</f>
         <v>30</v>
       </c>
       <c r="C260" s="7" t="str">
-        <f>TEXT(WEEKDAY(A260),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Mon</v>
       </c>
       <c r="D260" s="7" t="s">
@@ -8737,11 +8737,11 @@
         <v>44760</v>
       </c>
       <c r="B261" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
       <c r="C261" s="7" t="str">
-        <f>TEXT(WEEKDAY(A261),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Mon</v>
       </c>
       <c r="D261" s="7" t="s">
@@ -8767,11 +8767,11 @@
         <v>44764</v>
       </c>
       <c r="B262" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
       <c r="C262" s="7" t="str">
-        <f>TEXT(WEEKDAY(A262),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Fri</v>
       </c>
       <c r="D262" s="7" t="s">
@@ -8796,11 +8796,11 @@
         <v>44765</v>
       </c>
       <c r="B263" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
       <c r="C263" s="7" t="str">
-        <f>TEXT(WEEKDAY(A263),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Sat</v>
       </c>
       <c r="D263" s="7" t="s">
@@ -8825,11 +8825,11 @@
         <v>44766</v>
       </c>
       <c r="B264" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="C264" s="7" t="str">
-        <f>TEXT(WEEKDAY(A264),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Sun</v>
       </c>
       <c r="D264" s="7" t="s">
@@ -8854,11 +8854,11 @@
         <v>44766</v>
       </c>
       <c r="B265" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="C265" s="7" t="str">
-        <f>TEXT(WEEKDAY(A265),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Sun</v>
       </c>
       <c r="D265" s="7" t="s">
@@ -8883,11 +8883,11 @@
         <v>44767</v>
       </c>
       <c r="B266" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="C266" s="7" t="str">
-        <f>TEXT(WEEKDAY(A266),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Mon</v>
       </c>
       <c r="D266" s="7" t="s">
@@ -8912,11 +8912,11 @@
         <v>44767</v>
       </c>
       <c r="B267" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="C267" s="7" t="str">
-        <f>TEXT(WEEKDAY(A267),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Mon</v>
       </c>
       <c r="D267" s="7" t="s">
@@ -8942,11 +8942,11 @@
         <v>44767</v>
       </c>
       <c r="B268" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="C268" s="7" t="str">
-        <f>TEXT(WEEKDAY(A268),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Mon</v>
       </c>
       <c r="D268" s="7" t="s">
@@ -8972,11 +8972,11 @@
         <v>44768</v>
       </c>
       <c r="B269" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="C269" s="7" t="str">
-        <f>TEXT(WEEKDAY(A269),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Tue</v>
       </c>
       <c r="D269" s="7" t="s">
@@ -9001,11 +9001,11 @@
         <v>44769</v>
       </c>
       <c r="B270" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="C270" s="7" t="str">
-        <f>TEXT(WEEKDAY(A270),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Wed</v>
       </c>
       <c r="D270" s="7" t="s">
@@ -9030,11 +9030,11 @@
         <v>44770</v>
       </c>
       <c r="B271" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="C271" s="7" t="str">
-        <f>TEXT(WEEKDAY(A271),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Thu</v>
       </c>
       <c r="D271" s="7" t="s">
@@ -9047,7 +9047,7 @@
         <v>198</v>
       </c>
       <c r="G271" s="7" t="str">
-        <f>D271</f>
+        <f t="shared" ref="G271:G277" si="11">D271</f>
         <v>Netflix</v>
       </c>
       <c r="H271" s="7" t="s">
@@ -9060,11 +9060,11 @@
         <v>44773</v>
       </c>
       <c r="B272" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>32</v>
       </c>
       <c r="C272" s="7" t="str">
-        <f>TEXT(WEEKDAY(A272),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Sun</v>
       </c>
       <c r="D272" s="7" t="s">
@@ -9077,7 +9077,7 @@
         <v>198</v>
       </c>
       <c r="G272" s="7" t="str">
-        <f>D272</f>
+        <f t="shared" si="11"/>
         <v>Prime</v>
       </c>
       <c r="H272" s="7" t="s">
@@ -9090,11 +9090,11 @@
         <v>44774</v>
       </c>
       <c r="B273" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>32</v>
       </c>
       <c r="C273" s="7" t="str">
-        <f>TEXT(WEEKDAY(A273),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Mon</v>
       </c>
       <c r="D273" s="7" t="s">
@@ -9107,7 +9107,7 @@
         <v>198</v>
       </c>
       <c r="G273" s="7" t="str">
-        <f>D273</f>
+        <f t="shared" si="11"/>
         <v>Smarty</v>
       </c>
       <c r="H273" s="7" t="s">
@@ -9120,11 +9120,11 @@
         <v>44774</v>
       </c>
       <c r="B274" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>32</v>
       </c>
       <c r="C274" s="7" t="str">
-        <f>TEXT(WEEKDAY(A274),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Mon</v>
       </c>
       <c r="D274" s="7" t="s">
@@ -9137,7 +9137,7 @@
         <v>198</v>
       </c>
       <c r="G274" s="7" t="str">
-        <f>D274</f>
+        <f t="shared" si="11"/>
         <v>Google Colab</v>
       </c>
       <c r="H274" s="7" t="s">
@@ -9150,11 +9150,11 @@
         <v>44774</v>
       </c>
       <c r="B275" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>32</v>
       </c>
       <c r="C275" s="7" t="str">
-        <f>TEXT(WEEKDAY(A275),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Mon</v>
       </c>
       <c r="D275" s="7" t="s">
@@ -9167,7 +9167,7 @@
         <v>13</v>
       </c>
       <c r="G275" s="7" t="str">
-        <f>D275</f>
+        <f t="shared" si="11"/>
         <v>Aihua</v>
       </c>
       <c r="H275" s="7" t="s">
@@ -9180,11 +9180,11 @@
         <v>44774</v>
       </c>
       <c r="B276" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>32</v>
       </c>
       <c r="C276" s="7" t="str">
-        <f>TEXT(WEEKDAY(A276),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Mon</v>
       </c>
       <c r="D276" s="7" t="s">
@@ -9197,7 +9197,7 @@
         <v>13</v>
       </c>
       <c r="G276" s="7" t="str">
-        <f>D276</f>
+        <f t="shared" si="11"/>
         <v>Tesco</v>
       </c>
       <c r="H276" s="7" t="s">
@@ -9210,11 +9210,11 @@
         <v>44776</v>
       </c>
       <c r="B277" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>32</v>
       </c>
       <c r="C277" s="7" t="str">
-        <f>TEXT(WEEKDAY(A277),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Wed</v>
       </c>
       <c r="D277" s="7" t="s">
@@ -9227,7 +9227,7 @@
         <v>13</v>
       </c>
       <c r="G277" s="7" t="str">
-        <f>D277</f>
+        <f t="shared" si="11"/>
         <v>Farmfoods</v>
       </c>
       <c r="H277" s="7" t="s">
@@ -9240,11 +9240,11 @@
         <v>44776</v>
       </c>
       <c r="B278" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>32</v>
       </c>
       <c r="C278" s="7" t="str">
-        <f>TEXT(WEEKDAY(A278),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Wed</v>
       </c>
       <c r="D278" s="7" t="s">
@@ -9269,11 +9269,11 @@
         <v>44776</v>
       </c>
       <c r="B279" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>32</v>
       </c>
       <c r="C279" s="7" t="str">
-        <f>TEXT(WEEKDAY(A279),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Wed</v>
       </c>
       <c r="D279" s="7" t="s">
@@ -9299,11 +9299,11 @@
         <v>44776</v>
       </c>
       <c r="B280" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>32</v>
       </c>
       <c r="C280" s="7" t="str">
-        <f>TEXT(WEEKDAY(A280),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Wed</v>
       </c>
       <c r="D280" s="7" t="s">
@@ -9329,11 +9329,11 @@
         <v>44777</v>
       </c>
       <c r="B281" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>32</v>
       </c>
       <c r="C281" s="7" t="str">
-        <f>TEXT(WEEKDAY(A281),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Thu</v>
       </c>
       <c r="D281" s="7" t="s">
@@ -9358,11 +9358,11 @@
         <v>44778</v>
       </c>
       <c r="B282" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>32</v>
       </c>
       <c r="C282" s="7" t="str">
-        <f>TEXT(WEEKDAY(A282),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Fri</v>
       </c>
       <c r="D282" s="7" t="s">
@@ -9387,11 +9387,11 @@
         <v>44778</v>
       </c>
       <c r="B283" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>32</v>
       </c>
       <c r="C283" s="7" t="str">
-        <f>TEXT(WEEKDAY(A283),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Fri</v>
       </c>
       <c r="D283" s="7" t="s">
@@ -9417,11 +9417,11 @@
         <v>44779</v>
       </c>
       <c r="B284" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>32</v>
       </c>
       <c r="C284" s="7" t="str">
-        <f>TEXT(WEEKDAY(A284),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Sat</v>
       </c>
       <c r="D284" s="7" t="s">
@@ -9446,11 +9446,11 @@
         <v>44780</v>
       </c>
       <c r="B285" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>33</v>
       </c>
       <c r="C285" s="7" t="str">
-        <f>TEXT(WEEKDAY(A285),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Sun</v>
       </c>
       <c r="D285" s="7" t="s">
@@ -9475,11 +9475,11 @@
         <v>44780</v>
       </c>
       <c r="B286" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>33</v>
       </c>
       <c r="C286" s="7" t="str">
-        <f>TEXT(WEEKDAY(A286),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Sun</v>
       </c>
       <c r="D286" s="7" t="s">
@@ -9504,11 +9504,11 @@
         <v>44780</v>
       </c>
       <c r="B287" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>33</v>
       </c>
       <c r="C287" s="7" t="str">
-        <f>TEXT(WEEKDAY(A287),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Sun</v>
       </c>
       <c r="D287" s="7" t="s">
@@ -9534,11 +9534,11 @@
         <v>44782</v>
       </c>
       <c r="B288" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>33</v>
       </c>
       <c r="C288" s="7" t="str">
-        <f>TEXT(WEEKDAY(A288),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Tue</v>
       </c>
       <c r="D288" s="7" t="s">
@@ -9563,11 +9563,11 @@
         <v>44783</v>
       </c>
       <c r="B289" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>33</v>
       </c>
       <c r="C289" s="7" t="str">
-        <f>TEXT(WEEKDAY(A289),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Wed</v>
       </c>
       <c r="D289" s="7" t="s">
@@ -9592,11 +9592,11 @@
         <v>44783</v>
       </c>
       <c r="B290" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>33</v>
       </c>
       <c r="C290" s="7" t="str">
-        <f>TEXT(WEEKDAY(A290),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Wed</v>
       </c>
       <c r="D290" s="7" t="s">
@@ -9621,11 +9621,11 @@
         <v>44783</v>
       </c>
       <c r="B291" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>33</v>
       </c>
       <c r="C291" s="7" t="str">
-        <f>TEXT(WEEKDAY(A291),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Wed</v>
       </c>
       <c r="D291" s="7" t="s">
@@ -9638,7 +9638,7 @@
         <v>13</v>
       </c>
       <c r="G291" s="7" t="str">
-        <f>D291</f>
+        <f t="shared" ref="G291:G296" si="12">D291</f>
         <v>Farmfoods</v>
       </c>
       <c r="H291" s="7" t="s">
@@ -9651,11 +9651,11 @@
         <v>44783</v>
       </c>
       <c r="B292" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>33</v>
       </c>
       <c r="C292" s="7" t="str">
-        <f>TEXT(WEEKDAY(A292),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Wed</v>
       </c>
       <c r="D292" s="7" t="s">
@@ -9668,7 +9668,7 @@
         <v>13</v>
       </c>
       <c r="G292" s="7" t="str">
-        <f>D292</f>
+        <f t="shared" si="12"/>
         <v>Tesco</v>
       </c>
       <c r="H292" s="7" t="s">
@@ -9681,11 +9681,11 @@
         <v>44783</v>
       </c>
       <c r="B293" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>33</v>
       </c>
       <c r="C293" s="7" t="str">
-        <f>TEXT(WEEKDAY(A293),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Wed</v>
       </c>
       <c r="D293" s="7" t="s">
@@ -9698,7 +9698,7 @@
         <v>13</v>
       </c>
       <c r="G293" s="7" t="str">
-        <f>D293</f>
+        <f t="shared" si="12"/>
         <v>Aihua</v>
       </c>
       <c r="H293" s="7" t="s">
@@ -9711,11 +9711,11 @@
         <v>44785</v>
       </c>
       <c r="B294" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>33</v>
       </c>
       <c r="C294" s="7" t="str">
-        <f>TEXT(WEEKDAY(A294),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Fri</v>
       </c>
       <c r="D294" s="7" t="s">
@@ -9728,7 +9728,7 @@
         <v>13</v>
       </c>
       <c r="G294" s="7" t="str">
-        <f>D294</f>
+        <f t="shared" si="12"/>
         <v>Lidl</v>
       </c>
       <c r="H294" s="7" t="s">
@@ -9741,11 +9741,11 @@
         <v>44785</v>
       </c>
       <c r="B295" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>33</v>
       </c>
       <c r="C295" s="7" t="str">
-        <f>TEXT(WEEKDAY(A295),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Fri</v>
       </c>
       <c r="D295" s="7" t="s">
@@ -9758,7 +9758,7 @@
         <v>13</v>
       </c>
       <c r="G295" s="7" t="str">
-        <f>D295</f>
+        <f t="shared" si="12"/>
         <v>Tesco</v>
       </c>
       <c r="H295" s="7" t="s">
@@ -9771,11 +9771,11 @@
         <v>44787</v>
       </c>
       <c r="B296" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>34</v>
       </c>
       <c r="C296" s="7" t="str">
-        <f>TEXT(WEEKDAY(A296),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Sun</v>
       </c>
       <c r="D296" s="7" t="s">
@@ -9788,7 +9788,7 @@
         <v>13</v>
       </c>
       <c r="G296" s="7" t="str">
-        <f>D296</f>
+        <f t="shared" si="12"/>
         <v>Tesco</v>
       </c>
       <c r="H296" s="7" t="s">
@@ -9801,11 +9801,11 @@
         <v>44791</v>
       </c>
       <c r="B297" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>34</v>
       </c>
       <c r="C297" s="7" t="str">
-        <f>TEXT(WEEKDAY(A297),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Thu</v>
       </c>
       <c r="D297" s="7" t="s">
@@ -9830,11 +9830,11 @@
         <v>44792</v>
       </c>
       <c r="B298" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>34</v>
       </c>
       <c r="C298" s="7" t="str">
-        <f>TEXT(WEEKDAY(A298),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Fri</v>
       </c>
       <c r="D298" s="7" t="s">
@@ -9859,11 +9859,11 @@
         <v>44793</v>
       </c>
       <c r="B299" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>34</v>
       </c>
       <c r="C299" s="7" t="str">
-        <f>TEXT(WEEKDAY(A299),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Sat</v>
       </c>
       <c r="D299" s="7" t="s">
@@ -9888,11 +9888,11 @@
         <v>44793</v>
       </c>
       <c r="B300" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>34</v>
       </c>
       <c r="C300" s="7" t="str">
-        <f>TEXT(WEEKDAY(A300),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Sat</v>
       </c>
       <c r="D300" s="7" t="s">
@@ -9918,11 +9918,11 @@
         <v>44795</v>
       </c>
       <c r="B301" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>35</v>
       </c>
       <c r="C301" s="7" t="str">
-        <f>TEXT(WEEKDAY(A301),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Mon</v>
       </c>
       <c r="D301" s="7" t="s">
@@ -9948,11 +9948,11 @@
         <v>44796</v>
       </c>
       <c r="B302" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>35</v>
       </c>
       <c r="C302" s="7" t="str">
-        <f>TEXT(WEEKDAY(A302),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Tue</v>
       </c>
       <c r="D302" s="7" t="s">
@@ -9977,11 +9977,11 @@
         <v>44796</v>
       </c>
       <c r="B303" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>35</v>
       </c>
       <c r="C303" s="7" t="str">
-        <f>TEXT(WEEKDAY(A303),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Tue</v>
       </c>
       <c r="D303" s="7" t="s">
@@ -10007,11 +10007,11 @@
         <v>44796</v>
       </c>
       <c r="B304" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>35</v>
       </c>
       <c r="C304" s="7" t="str">
-        <f>TEXT(WEEKDAY(A304),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Tue</v>
       </c>
       <c r="D304" s="7" t="s">
@@ -10037,11 +10037,11 @@
         <v>44796</v>
       </c>
       <c r="B305" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>35</v>
       </c>
       <c r="C305" s="7" t="str">
-        <f>TEXT(WEEKDAY(A305),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Tue</v>
       </c>
       <c r="D305" s="7" t="s">
@@ -10066,11 +10066,11 @@
         <v>44796</v>
       </c>
       <c r="B306" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>35</v>
       </c>
       <c r="C306" s="7" t="str">
-        <f>TEXT(WEEKDAY(A306),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Tue</v>
       </c>
       <c r="D306" s="7" t="s">
@@ -10095,11 +10095,11 @@
         <v>44797</v>
       </c>
       <c r="B307" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>35</v>
       </c>
       <c r="C307" s="7" t="str">
-        <f>TEXT(WEEKDAY(A307),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Wed</v>
       </c>
       <c r="D307" s="7" t="s">
@@ -10125,11 +10125,11 @@
         <v>44797</v>
       </c>
       <c r="B308" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>35</v>
       </c>
       <c r="C308" s="7" t="str">
-        <f>TEXT(WEEKDAY(A308),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Wed</v>
       </c>
       <c r="D308" s="7" t="s">
@@ -10154,11 +10154,11 @@
         <v>44799</v>
       </c>
       <c r="B309" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>35</v>
       </c>
       <c r="C309" s="7" t="str">
-        <f>TEXT(WEEKDAY(A309),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Fri</v>
       </c>
       <c r="D309" s="7" t="s">
@@ -10184,11 +10184,11 @@
         <v>44801</v>
       </c>
       <c r="B310" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
       <c r="C310" s="7" t="str">
-        <f>TEXT(WEEKDAY(A310),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Sun</v>
       </c>
       <c r="D310" s="7" t="s">
@@ -10214,11 +10214,11 @@
         <v>44803</v>
       </c>
       <c r="B311" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
       <c r="C311" s="7" t="str">
-        <f>TEXT(WEEKDAY(A311),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Tue</v>
       </c>
       <c r="D311" s="7" t="s">
@@ -10244,11 +10244,11 @@
         <v>44803</v>
       </c>
       <c r="B312" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
       <c r="C312" s="7" t="str">
-        <f>TEXT(WEEKDAY(A312),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Tue</v>
       </c>
       <c r="D312" s="7" t="s">
@@ -10273,11 +10273,11 @@
         <v>44804</v>
       </c>
       <c r="B313" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
       <c r="C313" s="7" t="str">
-        <f>TEXT(WEEKDAY(A313),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Wed</v>
       </c>
       <c r="D313" s="7" t="s">
@@ -10303,11 +10303,11 @@
         <v>44805</v>
       </c>
       <c r="B314" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
       <c r="C314" s="7" t="str">
-        <f>TEXT(WEEKDAY(A314),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Thu</v>
       </c>
       <c r="D314" s="7" t="s">
@@ -10332,11 +10332,11 @@
         <v>44805</v>
       </c>
       <c r="B315" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
       <c r="C315" s="7" t="str">
-        <f>TEXT(WEEKDAY(A315),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Thu</v>
       </c>
       <c r="D315" s="7" t="s">
@@ -10362,11 +10362,11 @@
         <v>44805</v>
       </c>
       <c r="B316" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
       <c r="C316" s="7" t="str">
-        <f>TEXT(WEEKDAY(A316),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Thu</v>
       </c>
       <c r="D316" s="7" t="s">
@@ -10392,11 +10392,11 @@
         <v>44805</v>
       </c>
       <c r="B317" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
       <c r="C317" s="7" t="str">
-        <f>TEXT(WEEKDAY(A317),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Thu</v>
       </c>
       <c r="D317" s="7" t="s">
@@ -10422,11 +10422,11 @@
         <v>44808</v>
       </c>
       <c r="B318" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>37</v>
       </c>
       <c r="C318" s="7" t="str">
-        <f>TEXT(WEEKDAY(A318),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Sun</v>
       </c>
       <c r="D318" s="7" t="s">
@@ -10451,11 +10451,11 @@
         <v>44808</v>
       </c>
       <c r="B319" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>37</v>
       </c>
       <c r="C319" s="7" t="str">
-        <f>TEXT(WEEKDAY(A319),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Sun</v>
       </c>
       <c r="D319" s="7" t="s">
@@ -10480,11 +10480,11 @@
         <v>44808</v>
       </c>
       <c r="B320" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>37</v>
       </c>
       <c r="C320" s="7" t="str">
-        <f>TEXT(WEEKDAY(A320),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Sun</v>
       </c>
       <c r="D320" s="7" t="s">
@@ -10509,11 +10509,11 @@
         <v>44809</v>
       </c>
       <c r="B321" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>37</v>
       </c>
       <c r="C321" s="7" t="str">
-        <f>TEXT(WEEKDAY(A321),"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Mon</v>
       </c>
       <c r="D321" s="7" t="s">
@@ -10538,11 +10538,11 @@
         <v>44809</v>
       </c>
       <c r="B322" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>37</v>
       </c>
       <c r="C322" s="7" t="str">
-        <f>TEXT(WEEKDAY(A322),"ddd")</f>
+        <f t="shared" ref="C322:C385" si="13">TEXT(WEEKDAY(A322),"ddd")</f>
         <v>Mon</v>
       </c>
       <c r="D322" s="7" t="s">
@@ -10567,11 +10567,11 @@
         <v>44809</v>
       </c>
       <c r="B323" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>37</v>
       </c>
       <c r="C323" s="7" t="str">
-        <f>TEXT(WEEKDAY(A323),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Mon</v>
       </c>
       <c r="D323" s="7" t="s">
@@ -10596,11 +10596,11 @@
         <v>44809</v>
       </c>
       <c r="B324" s="7">
-        <f t="shared" ref="B324:B387" si="5">WEEKNUM(A324)</f>
+        <f t="shared" ref="B324:B387" si="14">WEEKNUM(A324)</f>
         <v>37</v>
       </c>
       <c r="C324" s="7" t="str">
-        <f>TEXT(WEEKDAY(A324),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Mon</v>
       </c>
       <c r="D324" s="7" t="s">
@@ -10625,11 +10625,11 @@
         <v>44809</v>
       </c>
       <c r="B325" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>37</v>
       </c>
       <c r="C325" s="7" t="str">
-        <f>TEXT(WEEKDAY(A325),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Mon</v>
       </c>
       <c r="D325" s="7" t="s">
@@ -10654,11 +10654,11 @@
         <v>44809</v>
       </c>
       <c r="B326" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>37</v>
       </c>
       <c r="C326" s="7" t="str">
-        <f>TEXT(WEEKDAY(A326),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Mon</v>
       </c>
       <c r="D326" s="7" t="s">
@@ -10683,11 +10683,11 @@
         <v>44809</v>
       </c>
       <c r="B327" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>37</v>
       </c>
       <c r="C327" s="7" t="str">
-        <f>TEXT(WEEKDAY(A327),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Mon</v>
       </c>
       <c r="D327" s="7" t="s">
@@ -10713,11 +10713,11 @@
         <v>44810</v>
       </c>
       <c r="B328" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>37</v>
       </c>
       <c r="C328" s="7" t="str">
-        <f>TEXT(WEEKDAY(A328),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Tue</v>
       </c>
       <c r="D328" s="7" t="s">
@@ -10742,11 +10742,11 @@
         <v>44810</v>
       </c>
       <c r="B329" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>37</v>
       </c>
       <c r="C329" s="7" t="str">
-        <f>TEXT(WEEKDAY(A329),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Tue</v>
       </c>
       <c r="D329" s="7" t="s">
@@ -10771,11 +10771,11 @@
         <v>44811</v>
       </c>
       <c r="B330" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>37</v>
       </c>
       <c r="C330" s="7" t="str">
-        <f>TEXT(WEEKDAY(A330),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Wed</v>
       </c>
       <c r="D330" s="7" t="s">
@@ -10801,11 +10801,11 @@
         <v>44811</v>
       </c>
       <c r="B331" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>37</v>
       </c>
       <c r="C331" s="7" t="str">
-        <f>TEXT(WEEKDAY(A331),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Wed</v>
       </c>
       <c r="D331" s="7" t="s">
@@ -10830,11 +10830,11 @@
         <v>44812</v>
       </c>
       <c r="B332" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>37</v>
       </c>
       <c r="C332" s="7" t="str">
-        <f>TEXT(WEEKDAY(A332),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Thu</v>
       </c>
       <c r="D332" s="7" t="s">
@@ -10860,11 +10860,11 @@
         <v>44815</v>
       </c>
       <c r="B333" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>38</v>
       </c>
       <c r="C333" s="7" t="str">
-        <f>TEXT(WEEKDAY(A333),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Sun</v>
       </c>
       <c r="D333" s="7" t="s">
@@ -10890,11 +10890,11 @@
         <v>44815</v>
       </c>
       <c r="B334" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>38</v>
       </c>
       <c r="C334" s="7" t="str">
-        <f>TEXT(WEEKDAY(A334),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Sun</v>
       </c>
       <c r="D334" s="7" t="s">
@@ -10919,11 +10919,11 @@
         <v>44815</v>
       </c>
       <c r="B335" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>38</v>
       </c>
       <c r="C335" s="7" t="str">
-        <f>TEXT(WEEKDAY(A335),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Sun</v>
       </c>
       <c r="D335" s="7" t="s">
@@ -10949,11 +10949,11 @@
         <v>44816</v>
       </c>
       <c r="B336" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>38</v>
       </c>
       <c r="C336" s="7" t="str">
-        <f>TEXT(WEEKDAY(A336),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Mon</v>
       </c>
       <c r="D336" s="7" t="s">
@@ -10978,11 +10978,11 @@
         <v>44816</v>
       </c>
       <c r="B337" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>38</v>
       </c>
       <c r="C337" s="7" t="str">
-        <f>TEXT(WEEKDAY(A337),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Mon</v>
       </c>
       <c r="D337" s="7" t="s">
@@ -11007,11 +11007,11 @@
         <v>44816</v>
       </c>
       <c r="B338" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>38</v>
       </c>
       <c r="C338" s="7" t="str">
-        <f>TEXT(WEEKDAY(A338),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Mon</v>
       </c>
       <c r="D338" s="7" t="s">
@@ -11036,11 +11036,11 @@
         <v>44820</v>
       </c>
       <c r="B339" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>38</v>
       </c>
       <c r="C339" s="7" t="str">
-        <f>TEXT(WEEKDAY(A339),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Fri</v>
       </c>
       <c r="D339" s="7" t="s">
@@ -11066,11 +11066,11 @@
         <v>44821</v>
       </c>
       <c r="B340" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>38</v>
       </c>
       <c r="C340" s="7" t="str">
-        <f>TEXT(WEEKDAY(A340),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Sat</v>
       </c>
       <c r="D340" s="7" t="s">
@@ -11096,11 +11096,11 @@
         <v>44821</v>
       </c>
       <c r="B341" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>38</v>
       </c>
       <c r="C341" s="7" t="str">
-        <f>TEXT(WEEKDAY(A341),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Sat</v>
       </c>
       <c r="D341" s="7" t="s">
@@ -11125,11 +11125,11 @@
         <v>44821</v>
       </c>
       <c r="B342" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>38</v>
       </c>
       <c r="C342" s="7" t="str">
-        <f>TEXT(WEEKDAY(A342),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Sat</v>
       </c>
       <c r="D342" s="7" t="s">
@@ -11154,11 +11154,11 @@
         <v>44821</v>
       </c>
       <c r="B343" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>38</v>
       </c>
       <c r="C343" s="7" t="str">
-        <f>TEXT(WEEKDAY(A343),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Sat</v>
       </c>
       <c r="D343" s="7" t="s">
@@ -11183,11 +11183,11 @@
         <v>44821</v>
       </c>
       <c r="B344" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>38</v>
       </c>
       <c r="C344" s="7" t="str">
-        <f>TEXT(WEEKDAY(A344),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Sat</v>
       </c>
       <c r="D344" s="7" t="s">
@@ -11212,11 +11212,11 @@
         <v>44822</v>
       </c>
       <c r="B345" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>39</v>
       </c>
       <c r="C345" s="7" t="str">
-        <f>TEXT(WEEKDAY(A345),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Sun</v>
       </c>
       <c r="D345" s="7" t="s">
@@ -11242,11 +11242,11 @@
         <v>44822</v>
       </c>
       <c r="B346" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>39</v>
       </c>
       <c r="C346" s="7" t="str">
-        <f>TEXT(WEEKDAY(A346),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Sun</v>
       </c>
       <c r="D346" s="7" t="s">
@@ -11271,11 +11271,11 @@
         <v>44823</v>
       </c>
       <c r="B347" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>39</v>
       </c>
       <c r="C347" s="7" t="str">
-        <f>TEXT(WEEKDAY(A347),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Mon</v>
       </c>
       <c r="D347" s="7" t="s">
@@ -11300,11 +11300,11 @@
         <v>44823</v>
       </c>
       <c r="B348" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>39</v>
       </c>
       <c r="C348" s="7" t="str">
-        <f>TEXT(WEEKDAY(A348),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Mon</v>
       </c>
       <c r="D348" s="7" t="s">
@@ -11329,11 +11329,11 @@
         <v>44824</v>
       </c>
       <c r="B349" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>39</v>
       </c>
       <c r="C349" s="7" t="str">
-        <f>TEXT(WEEKDAY(A349),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Tue</v>
       </c>
       <c r="D349" s="7" t="s">
@@ -11358,11 +11358,11 @@
         <v>44827</v>
       </c>
       <c r="B350" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>39</v>
       </c>
       <c r="C350" s="7" t="str">
-        <f>TEXT(WEEKDAY(A350),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Fri</v>
       </c>
       <c r="D350" s="7" t="s">
@@ -11388,11 +11388,11 @@
         <v>44827</v>
       </c>
       <c r="B351" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>39</v>
       </c>
       <c r="C351" s="7" t="str">
-        <f>TEXT(WEEKDAY(A351),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Fri</v>
       </c>
       <c r="D351" s="7" t="s">
@@ -11418,11 +11418,11 @@
         <v>44829</v>
       </c>
       <c r="B352" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>40</v>
       </c>
       <c r="C352" s="7" t="str">
-        <f>TEXT(WEEKDAY(A352),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Sun</v>
       </c>
       <c r="D352" s="7" t="s">
@@ -11447,11 +11447,11 @@
         <v>44830</v>
       </c>
       <c r="B353" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>40</v>
       </c>
       <c r="C353" s="7" t="str">
-        <f>TEXT(WEEKDAY(A353),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Mon</v>
       </c>
       <c r="D353" s="7" t="s">
@@ -11477,11 +11477,11 @@
         <v>44830</v>
       </c>
       <c r="B354" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>40</v>
       </c>
       <c r="C354" s="7" t="str">
-        <f>TEXT(WEEKDAY(A354),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Mon</v>
       </c>
       <c r="D354" s="7" t="s">
@@ -11507,11 +11507,11 @@
         <v>44830</v>
       </c>
       <c r="B355" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>40</v>
       </c>
       <c r="C355" s="7" t="str">
-        <f>TEXT(WEEKDAY(A355),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Mon</v>
       </c>
       <c r="D355" s="7" t="s">
@@ -11536,11 +11536,11 @@
         <v>44831</v>
       </c>
       <c r="B356" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>40</v>
       </c>
       <c r="C356" s="7" t="str">
-        <f>TEXT(WEEKDAY(A356),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Tue</v>
       </c>
       <c r="D356" s="7" t="s">
@@ -11566,11 +11566,11 @@
         <v>44833</v>
       </c>
       <c r="B357" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>40</v>
       </c>
       <c r="C357" s="7" t="str">
-        <f>TEXT(WEEKDAY(A357),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Thu</v>
       </c>
       <c r="D357" s="7" t="s">
@@ -11595,11 +11595,11 @@
         <v>44834</v>
       </c>
       <c r="B358" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>40</v>
       </c>
       <c r="C358" s="7" t="str">
-        <f>TEXT(WEEKDAY(A358),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Fri</v>
       </c>
       <c r="D358" s="7" t="s">
@@ -11624,11 +11624,11 @@
         <v>44837</v>
       </c>
       <c r="B359" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>41</v>
       </c>
       <c r="C359" s="7" t="str">
-        <f>TEXT(WEEKDAY(A359),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Mon</v>
       </c>
       <c r="D359" s="7" t="s">
@@ -11653,11 +11653,11 @@
         <v>44837</v>
       </c>
       <c r="B360" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>41</v>
       </c>
       <c r="C360" s="7" t="str">
-        <f>TEXT(WEEKDAY(A360),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Mon</v>
       </c>
       <c r="D360" s="7" t="s">
@@ -11682,11 +11682,11 @@
         <v>44839</v>
       </c>
       <c r="B361" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>41</v>
       </c>
       <c r="C361" s="7" t="str">
-        <f>TEXT(WEEKDAY(A361),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Wed</v>
       </c>
       <c r="D361" s="7" t="s">
@@ -11711,11 +11711,11 @@
         <v>44839</v>
       </c>
       <c r="B362" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>41</v>
       </c>
       <c r="C362" s="7" t="str">
-        <f>TEXT(WEEKDAY(A362),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Wed</v>
       </c>
       <c r="D362" s="7" t="s">
@@ -11740,11 +11740,11 @@
         <v>44839</v>
       </c>
       <c r="B363" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>41</v>
       </c>
       <c r="C363" s="7" t="str">
-        <f>TEXT(WEEKDAY(A363),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Wed</v>
       </c>
       <c r="D363" s="7" t="s">
@@ -11769,11 +11769,11 @@
         <v>44839</v>
       </c>
       <c r="B364" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>41</v>
       </c>
       <c r="C364" s="7" t="str">
-        <f>TEXT(WEEKDAY(A364),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Wed</v>
       </c>
       <c r="D364" s="7" t="s">
@@ -11799,11 +11799,11 @@
         <v>44840</v>
       </c>
       <c r="B365" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>41</v>
       </c>
       <c r="C365" s="7" t="str">
-        <f>TEXT(WEEKDAY(A365),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Thu</v>
       </c>
       <c r="D365" s="7" t="s">
@@ -11828,11 +11828,11 @@
         <v>44841</v>
       </c>
       <c r="B366" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>41</v>
       </c>
       <c r="C366" s="7" t="str">
-        <f>TEXT(WEEKDAY(A366),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Fri</v>
       </c>
       <c r="D366" s="7" t="s">
@@ -11858,11 +11858,11 @@
         <v>44844</v>
       </c>
       <c r="B367" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>42</v>
       </c>
       <c r="C367" s="7" t="str">
-        <f>TEXT(WEEKDAY(A367),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Mon</v>
       </c>
       <c r="D367" s="7" t="s">
@@ -11887,11 +11887,11 @@
         <v>44844</v>
       </c>
       <c r="B368" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>42</v>
       </c>
       <c r="C368" s="7" t="str">
-        <f>TEXT(WEEKDAY(A368),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Mon</v>
       </c>
       <c r="D368" s="7" t="s">
@@ -11916,11 +11916,11 @@
         <v>44845</v>
       </c>
       <c r="B369" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>42</v>
       </c>
       <c r="C369" s="7" t="str">
-        <f>TEXT(WEEKDAY(A369),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Tue</v>
       </c>
       <c r="D369" s="7" t="s">
@@ -11946,11 +11946,11 @@
         <v>44845</v>
       </c>
       <c r="B370" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>42</v>
       </c>
       <c r="C370" s="7" t="str">
-        <f>TEXT(WEEKDAY(A370),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Tue</v>
       </c>
       <c r="D370" s="7" t="s">
@@ -11976,11 +11976,11 @@
         <v>44845</v>
       </c>
       <c r="B371" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>42</v>
       </c>
       <c r="C371" s="7" t="str">
-        <f>TEXT(WEEKDAY(A371),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Tue</v>
       </c>
       <c r="D371" s="7" t="s">
@@ -12006,11 +12006,11 @@
         <v>44846</v>
       </c>
       <c r="B372" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>42</v>
       </c>
       <c r="C372" s="7" t="str">
-        <f>TEXT(WEEKDAY(A372),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Wed</v>
       </c>
       <c r="D372" s="7" t="s">
@@ -12035,11 +12035,11 @@
         <v>44846</v>
       </c>
       <c r="B373" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>42</v>
       </c>
       <c r="C373" s="7" t="str">
-        <f>TEXT(WEEKDAY(A373),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Wed</v>
       </c>
       <c r="D373" s="7" t="s">
@@ -12064,11 +12064,11 @@
         <v>44849</v>
       </c>
       <c r="B374" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>42</v>
       </c>
       <c r="C374" s="7" t="str">
-        <f>TEXT(WEEKDAY(A374),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Sat</v>
       </c>
       <c r="D374" s="7" t="s">
@@ -12093,11 +12093,11 @@
         <v>44850</v>
       </c>
       <c r="B375" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>43</v>
       </c>
       <c r="C375" s="7" t="str">
-        <f>TEXT(WEEKDAY(A375),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Sun</v>
       </c>
       <c r="D375" s="7" t="s">
@@ -12122,11 +12122,11 @@
         <v>44851</v>
       </c>
       <c r="B376" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>43</v>
       </c>
       <c r="C376" s="7" t="str">
-        <f>TEXT(WEEKDAY(A376),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Mon</v>
       </c>
       <c r="D376" s="7" t="s">
@@ -12151,11 +12151,11 @@
         <v>44851</v>
       </c>
       <c r="B377" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>43</v>
       </c>
       <c r="C377" s="7" t="str">
-        <f>TEXT(WEEKDAY(A377),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Mon</v>
       </c>
       <c r="D377" s="7" t="s">
@@ -12181,11 +12181,11 @@
         <v>44853</v>
       </c>
       <c r="B378" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>43</v>
       </c>
       <c r="C378" s="7" t="str">
-        <f>TEXT(WEEKDAY(A378),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Wed</v>
       </c>
       <c r="D378" s="7" t="s">
@@ -12211,11 +12211,11 @@
         <v>44854</v>
       </c>
       <c r="B379" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>43</v>
       </c>
       <c r="C379" s="7" t="str">
-        <f>TEXT(WEEKDAY(A379),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Thu</v>
       </c>
       <c r="D379" s="7" t="s">
@@ -12240,11 +12240,11 @@
         <v>44854</v>
       </c>
       <c r="B380" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>43</v>
       </c>
       <c r="C380" s="7" t="str">
-        <f>TEXT(WEEKDAY(A380),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Thu</v>
       </c>
       <c r="D380" s="7" t="s">
@@ -12270,11 +12270,11 @@
         <v>44855</v>
       </c>
       <c r="B381" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>43</v>
       </c>
       <c r="C381" s="7" t="str">
-        <f>TEXT(WEEKDAY(A381),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Fri</v>
       </c>
       <c r="D381" s="7" t="s">
@@ -12300,11 +12300,11 @@
         <v>44855</v>
       </c>
       <c r="B382" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>43</v>
       </c>
       <c r="C382" s="7" t="str">
-        <f>TEXT(WEEKDAY(A382),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Fri</v>
       </c>
       <c r="D382" s="7" t="s">
@@ -12329,11 +12329,11 @@
         <v>44855</v>
       </c>
       <c r="B383" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>43</v>
       </c>
       <c r="C383" s="7" t="str">
-        <f>TEXT(WEEKDAY(A383),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Fri</v>
       </c>
       <c r="D383" s="7" t="s">
@@ -12358,11 +12358,11 @@
         <v>44855</v>
       </c>
       <c r="B384" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>43</v>
       </c>
       <c r="C384" s="7" t="str">
-        <f>TEXT(WEEKDAY(A384),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Fri</v>
       </c>
       <c r="D384" s="7" t="s">
@@ -12387,11 +12387,11 @@
         <v>44855</v>
       </c>
       <c r="B385" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>43</v>
       </c>
       <c r="C385" s="7" t="str">
-        <f>TEXT(WEEKDAY(A385),"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Fri</v>
       </c>
       <c r="D385" s="7" t="s">
@@ -12417,11 +12417,11 @@
         <v>44855</v>
       </c>
       <c r="B386" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>43</v>
       </c>
       <c r="C386" s="7" t="str">
-        <f>TEXT(WEEKDAY(A386),"ddd")</f>
+        <f t="shared" ref="C386:C449" si="15">TEXT(WEEKDAY(A386),"ddd")</f>
         <v>Fri</v>
       </c>
       <c r="D386" s="7" t="s">
@@ -12446,11 +12446,11 @@
         <v>44855</v>
       </c>
       <c r="B387" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>43</v>
       </c>
       <c r="C387" s="7" t="str">
-        <f>TEXT(WEEKDAY(A387),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Fri</v>
       </c>
       <c r="D387" s="7" t="s">
@@ -12476,11 +12476,11 @@
         <v>44856</v>
       </c>
       <c r="B388" s="7">
-        <f t="shared" ref="B388:B451" si="6">WEEKNUM(A388)</f>
+        <f t="shared" ref="B388:B451" si="16">WEEKNUM(A388)</f>
         <v>43</v>
       </c>
       <c r="C388" s="7" t="str">
-        <f>TEXT(WEEKDAY(A388),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Sat</v>
       </c>
       <c r="D388" s="7" t="s">
@@ -12505,11 +12505,11 @@
         <v>44858</v>
       </c>
       <c r="B389" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>44</v>
       </c>
       <c r="C389" s="7" t="str">
-        <f>TEXT(WEEKDAY(A389),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Mon</v>
       </c>
       <c r="D389" s="7" t="s">
@@ -12534,11 +12534,11 @@
         <v>44858</v>
       </c>
       <c r="B390" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>44</v>
       </c>
       <c r="C390" s="7" t="str">
-        <f>TEXT(WEEKDAY(A390),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Mon</v>
       </c>
       <c r="D390" s="7" t="s">
@@ -12563,11 +12563,11 @@
         <v>44859</v>
       </c>
       <c r="B391" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>44</v>
       </c>
       <c r="C391" s="7" t="str">
-        <f>TEXT(WEEKDAY(A391),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Tue</v>
       </c>
       <c r="D391" s="7" t="s">
@@ -12593,11 +12593,11 @@
         <v>44859</v>
       </c>
       <c r="B392" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>44</v>
       </c>
       <c r="C392" s="7" t="str">
-        <f>TEXT(WEEKDAY(A392),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Tue</v>
       </c>
       <c r="D392" s="7" t="s">
@@ -12623,11 +12623,11 @@
         <v>44859</v>
       </c>
       <c r="B393" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>44</v>
       </c>
       <c r="C393" s="7" t="str">
-        <f>TEXT(WEEKDAY(A393),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Tue</v>
       </c>
       <c r="D393" s="7" t="s">
@@ -12653,11 +12653,11 @@
         <v>44862</v>
       </c>
       <c r="B394" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>44</v>
       </c>
       <c r="C394" s="7" t="str">
-        <f>TEXT(WEEKDAY(A394),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Fri</v>
       </c>
       <c r="D394" s="7" t="s">
@@ -12683,11 +12683,11 @@
         <v>44862</v>
       </c>
       <c r="B395" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>44</v>
       </c>
       <c r="C395" s="7" t="str">
-        <f>TEXT(WEEKDAY(A395),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Fri</v>
       </c>
       <c r="D395" s="7" t="s">
@@ -12713,11 +12713,11 @@
         <v>44863</v>
       </c>
       <c r="B396" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>44</v>
       </c>
       <c r="C396" s="7" t="str">
-        <f>TEXT(WEEKDAY(A396),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Sat</v>
       </c>
       <c r="D396" s="7" t="s">
@@ -12742,11 +12742,11 @@
         <v>44864</v>
       </c>
       <c r="B397" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>45</v>
       </c>
       <c r="C397" s="7" t="str">
-        <f>TEXT(WEEKDAY(A397),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Sun</v>
       </c>
       <c r="D397" s="7" t="s">
@@ -12771,11 +12771,11 @@
         <v>44865</v>
       </c>
       <c r="B398" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>45</v>
       </c>
       <c r="C398" s="7" t="str">
-        <f>TEXT(WEEKDAY(A398),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Mon</v>
       </c>
       <c r="D398" s="7" t="s">
@@ -12800,11 +12800,11 @@
         <v>44865</v>
       </c>
       <c r="B399" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>45</v>
       </c>
       <c r="C399" s="7" t="str">
-        <f>TEXT(WEEKDAY(A399),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Mon</v>
       </c>
       <c r="D399" s="7" t="s">
@@ -12829,11 +12829,11 @@
         <v>44865</v>
       </c>
       <c r="B400" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>45</v>
       </c>
       <c r="C400" s="7" t="str">
-        <f>TEXT(WEEKDAY(A400),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Mon</v>
       </c>
       <c r="D400" s="7" t="s">
@@ -12858,11 +12858,11 @@
         <v>44866</v>
       </c>
       <c r="B401" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>45</v>
       </c>
       <c r="C401" s="7" t="str">
-        <f>TEXT(WEEKDAY(A401),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Tue</v>
       </c>
       <c r="D401" s="7" t="s">
@@ -12887,11 +12887,11 @@
         <v>44867</v>
       </c>
       <c r="B402" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>45</v>
       </c>
       <c r="C402" s="7" t="str">
-        <f>TEXT(WEEKDAY(A402),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Wed</v>
       </c>
       <c r="D402" s="7" t="s">
@@ -12917,11 +12917,11 @@
         <v>44869</v>
       </c>
       <c r="B403" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>45</v>
       </c>
       <c r="C403" s="7" t="str">
-        <f>TEXT(WEEKDAY(A403),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Fri</v>
       </c>
       <c r="D403" s="7" t="s">
@@ -12947,11 +12947,11 @@
         <v>44869</v>
       </c>
       <c r="B404" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>45</v>
       </c>
       <c r="C404" s="7" t="str">
-        <f>TEXT(WEEKDAY(A404),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Fri</v>
       </c>
       <c r="D404" s="7" t="s">
@@ -12977,11 +12977,11 @@
         <v>44873</v>
       </c>
       <c r="B405" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>46</v>
       </c>
       <c r="C405" s="7" t="str">
-        <f>TEXT(WEEKDAY(A405),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Tue</v>
       </c>
       <c r="D405" s="7" t="s">
@@ -13007,11 +13007,11 @@
         <v>44874</v>
       </c>
       <c r="B406" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>46</v>
       </c>
       <c r="C406" s="7" t="str">
-        <f>TEXT(WEEKDAY(A406),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Wed</v>
       </c>
       <c r="D406" s="7" t="s">
@@ -13036,11 +13036,11 @@
         <v>44875</v>
       </c>
       <c r="B407" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>46</v>
       </c>
       <c r="C407" s="7" t="str">
-        <f>TEXT(WEEKDAY(A407),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Thu</v>
       </c>
       <c r="D407" s="7" t="s">
@@ -13065,11 +13065,11 @@
         <v>44875</v>
       </c>
       <c r="B408" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>46</v>
       </c>
       <c r="C408" s="7" t="str">
-        <f>TEXT(WEEKDAY(A408),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Thu</v>
       </c>
       <c r="D408" s="7" t="s">
@@ -13094,11 +13094,11 @@
         <v>44875</v>
       </c>
       <c r="B409" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>46</v>
       </c>
       <c r="C409" s="7" t="str">
-        <f>TEXT(WEEKDAY(A409),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Thu</v>
       </c>
       <c r="D409" s="7" t="s">
@@ -13124,11 +13124,11 @@
         <v>44875</v>
       </c>
       <c r="B410" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>46</v>
       </c>
       <c r="C410" s="7" t="str">
-        <f>TEXT(WEEKDAY(A410),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Thu</v>
       </c>
       <c r="D410" s="7" t="s">
@@ -13153,11 +13153,11 @@
         <v>44876</v>
       </c>
       <c r="B411" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>46</v>
       </c>
       <c r="C411" s="7" t="str">
-        <f>TEXT(WEEKDAY(A411),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Fri</v>
       </c>
       <c r="D411" s="7" t="s">
@@ -13183,11 +13183,11 @@
         <v>44877</v>
       </c>
       <c r="B412" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>46</v>
       </c>
       <c r="C412" s="7" t="str">
-        <f>TEXT(WEEKDAY(A412),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Sat</v>
       </c>
       <c r="D412" s="7" t="s">
@@ -13212,11 +13212,11 @@
         <v>44877</v>
       </c>
       <c r="B413" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>46</v>
       </c>
       <c r="C413" s="7" t="str">
-        <f>TEXT(WEEKDAY(A413),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Sat</v>
       </c>
       <c r="D413" s="7" t="s">
@@ -13242,11 +13242,11 @@
         <v>44878</v>
       </c>
       <c r="B414" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>47</v>
       </c>
       <c r="C414" s="7" t="str">
-        <f>TEXT(WEEKDAY(A414),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Sun</v>
       </c>
       <c r="D414" s="7" t="s">
@@ -13272,11 +13272,11 @@
         <v>44878</v>
       </c>
       <c r="B415" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>47</v>
       </c>
       <c r="C415" s="7" t="str">
-        <f>TEXT(WEEKDAY(A415),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Sun</v>
       </c>
       <c r="D415" s="7" t="s">
@@ -13301,11 +13301,11 @@
         <v>44878</v>
       </c>
       <c r="B416" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>47</v>
       </c>
       <c r="C416" s="7" t="str">
-        <f>TEXT(WEEKDAY(A416),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Sun</v>
       </c>
       <c r="D416" s="7" t="s">
@@ -13331,11 +13331,11 @@
         <v>44879</v>
       </c>
       <c r="B417" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>47</v>
       </c>
       <c r="C417" s="7" t="str">
-        <f>TEXT(WEEKDAY(A417),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Mon</v>
       </c>
       <c r="D417" s="7" t="s">
@@ -13360,11 +13360,11 @@
         <v>44879</v>
       </c>
       <c r="B418" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>47</v>
       </c>
       <c r="C418" s="7" t="str">
-        <f>TEXT(WEEKDAY(A418),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Mon</v>
       </c>
       <c r="D418" s="7" t="s">
@@ -13389,11 +13389,11 @@
         <v>44879</v>
       </c>
       <c r="B419" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>47</v>
       </c>
       <c r="C419" s="7" t="str">
-        <f>TEXT(WEEKDAY(A419),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Mon</v>
       </c>
       <c r="D419" s="7" t="s">
@@ -13418,11 +13418,11 @@
         <v>44880</v>
       </c>
       <c r="B420" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>47</v>
       </c>
       <c r="C420" s="7" t="str">
-        <f>TEXT(WEEKDAY(A420),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Tue</v>
       </c>
       <c r="D420" s="7" t="s">
@@ -13447,11 +13447,11 @@
         <v>44880</v>
       </c>
       <c r="B421" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>47</v>
       </c>
       <c r="C421" s="7" t="str">
-        <f>TEXT(WEEKDAY(A421),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Tue</v>
       </c>
       <c r="D421" s="7" t="s">
@@ -13477,11 +13477,11 @@
         <v>44880</v>
       </c>
       <c r="B422" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>47</v>
       </c>
       <c r="C422" s="7" t="str">
-        <f>TEXT(WEEKDAY(A422),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Tue</v>
       </c>
       <c r="D422" s="7" t="s">
@@ -13506,11 +13506,11 @@
         <v>44882</v>
       </c>
       <c r="B423" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>47</v>
       </c>
       <c r="C423" s="7" t="str">
-        <f>TEXT(WEEKDAY(A423),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Thu</v>
       </c>
       <c r="D423" s="7" t="s">
@@ -13535,11 +13535,11 @@
         <v>44883</v>
       </c>
       <c r="B424" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>47</v>
       </c>
       <c r="C424" s="7" t="str">
-        <f>TEXT(WEEKDAY(A424),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Fri</v>
       </c>
       <c r="D424" s="7" t="s">
@@ -13565,11 +13565,11 @@
         <v>44885</v>
       </c>
       <c r="B425" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>48</v>
       </c>
       <c r="C425" s="7" t="str">
-        <f>TEXT(WEEKDAY(A425),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Sun</v>
       </c>
       <c r="D425" s="7" t="s">
@@ -13594,11 +13594,11 @@
         <v>44885</v>
       </c>
       <c r="B426" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>48</v>
       </c>
       <c r="C426" s="7" t="str">
-        <f>TEXT(WEEKDAY(A426),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Sun</v>
       </c>
       <c r="D426" s="7" t="s">
@@ -13623,11 +13623,11 @@
         <v>44887</v>
       </c>
       <c r="B427" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>48</v>
       </c>
       <c r="C427" s="7" t="str">
-        <f>TEXT(WEEKDAY(A427),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Tue</v>
       </c>
       <c r="D427" s="7" t="s">
@@ -13652,11 +13652,11 @@
         <v>44887</v>
       </c>
       <c r="B428" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>48</v>
       </c>
       <c r="C428" s="7" t="str">
-        <f>TEXT(WEEKDAY(A428),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Tue</v>
       </c>
       <c r="D428" s="7" t="s">
@@ -13681,11 +13681,11 @@
         <v>44887</v>
       </c>
       <c r="B429" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>48</v>
       </c>
       <c r="C429" s="7" t="str">
-        <f>TEXT(WEEKDAY(A429),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Tue</v>
       </c>
       <c r="D429" s="7" t="s">
@@ -13710,11 +13710,11 @@
         <v>44888</v>
       </c>
       <c r="B430" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>48</v>
       </c>
       <c r="C430" s="7" t="str">
-        <f>TEXT(WEEKDAY(A430),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Wed</v>
       </c>
       <c r="D430" s="7" t="s">
@@ -13740,11 +13740,11 @@
         <v>44888</v>
       </c>
       <c r="B431" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>48</v>
       </c>
       <c r="C431" s="7" t="str">
-        <f>TEXT(WEEKDAY(A431),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Wed</v>
       </c>
       <c r="D431" s="7" t="s">
@@ -13770,11 +13770,11 @@
         <v>44888</v>
       </c>
       <c r="B432" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>48</v>
       </c>
       <c r="C432" s="7" t="str">
-        <f>TEXT(WEEKDAY(A432),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Wed</v>
       </c>
       <c r="D432" s="7" t="s">
@@ -13800,11 +13800,11 @@
         <v>44888</v>
       </c>
       <c r="B433" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>48</v>
       </c>
       <c r="C433" s="7" t="str">
-        <f>TEXT(WEEKDAY(A433),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Wed</v>
       </c>
       <c r="D433" s="7" t="s">
@@ -13829,11 +13829,11 @@
         <v>44890</v>
       </c>
       <c r="B434" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>48</v>
       </c>
       <c r="C434" s="7" t="str">
-        <f>TEXT(WEEKDAY(A434),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Fri</v>
       </c>
       <c r="D434" s="7" t="s">
@@ -13858,11 +13858,11 @@
         <v>44890</v>
       </c>
       <c r="B435" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>48</v>
       </c>
       <c r="C435" s="7" t="str">
-        <f>TEXT(WEEKDAY(A435),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Fri</v>
       </c>
       <c r="D435" s="7" t="s">
@@ -13887,11 +13887,11 @@
         <v>44891</v>
       </c>
       <c r="B436" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>48</v>
       </c>
       <c r="C436" s="7" t="str">
-        <f>TEXT(WEEKDAY(A436),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Sat</v>
       </c>
       <c r="D436" s="7" t="s">
@@ -13916,11 +13916,11 @@
         <v>44891</v>
       </c>
       <c r="B437" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>48</v>
       </c>
       <c r="C437" s="7" t="str">
-        <f>TEXT(WEEKDAY(A437),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Sat</v>
       </c>
       <c r="D437" s="7" t="s">
@@ -13945,11 +13945,11 @@
         <v>44892</v>
       </c>
       <c r="B438" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>49</v>
       </c>
       <c r="C438" s="7" t="str">
-        <f>TEXT(WEEKDAY(A438),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Sun</v>
       </c>
       <c r="D438" s="7" t="s">
@@ -13974,11 +13974,11 @@
         <v>44892</v>
       </c>
       <c r="B439" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>49</v>
       </c>
       <c r="C439" s="7" t="str">
-        <f>TEXT(WEEKDAY(A439),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Sun</v>
       </c>
       <c r="D439" s="7" t="s">
@@ -14003,11 +14003,11 @@
         <v>44893</v>
       </c>
       <c r="B440" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>49</v>
       </c>
       <c r="C440" s="7" t="str">
-        <f>TEXT(WEEKDAY(A440),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Mon</v>
       </c>
       <c r="D440" s="7" t="s">
@@ -14033,11 +14033,11 @@
         <v>44893</v>
       </c>
       <c r="B441" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>49</v>
       </c>
       <c r="C441" s="7" t="str">
-        <f>TEXT(WEEKDAY(A441),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Mon</v>
       </c>
       <c r="D441" s="7" t="s">
@@ -14062,11 +14062,11 @@
         <v>44895</v>
       </c>
       <c r="B442" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>49</v>
       </c>
       <c r="C442" s="7" t="str">
-        <f>TEXT(WEEKDAY(A442),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Wed</v>
       </c>
       <c r="D442" s="7" t="s">
@@ -14091,11 +14091,11 @@
         <v>44897</v>
       </c>
       <c r="B443" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>49</v>
       </c>
       <c r="C443" s="7" t="str">
-        <f>TEXT(WEEKDAY(A443),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Fri</v>
       </c>
       <c r="D443" s="7" t="s">
@@ -14120,11 +14120,11 @@
         <v>44897</v>
       </c>
       <c r="B444" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>49</v>
       </c>
       <c r="C444" s="7" t="str">
-        <f>TEXT(WEEKDAY(A444),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Fri</v>
       </c>
       <c r="D444" s="7" t="s">
@@ -14150,11 +14150,11 @@
         <v>44897</v>
       </c>
       <c r="B445" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>49</v>
       </c>
       <c r="C445" s="7" t="str">
-        <f>TEXT(WEEKDAY(A445),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Fri</v>
       </c>
       <c r="D445" s="7" t="s">
@@ -14180,11 +14180,11 @@
         <v>44897</v>
       </c>
       <c r="B446" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>49</v>
       </c>
       <c r="C446" s="7" t="str">
-        <f>TEXT(WEEKDAY(A446),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Fri</v>
       </c>
       <c r="D446" s="7" t="s">
@@ -14209,11 +14209,11 @@
         <v>44897</v>
       </c>
       <c r="B447" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>49</v>
       </c>
       <c r="C447" s="7" t="str">
-        <f>TEXT(WEEKDAY(A447),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Fri</v>
       </c>
       <c r="D447" s="7" t="s">
@@ -14238,11 +14238,11 @@
         <v>44900</v>
       </c>
       <c r="B448" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>50</v>
       </c>
       <c r="C448" s="7" t="str">
-        <f>TEXT(WEEKDAY(A448),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Mon</v>
       </c>
       <c r="D448" s="7" t="s">
@@ -14267,11 +14267,11 @@
         <v>44900</v>
       </c>
       <c r="B449" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>50</v>
       </c>
       <c r="C449" s="7" t="str">
-        <f>TEXT(WEEKDAY(A449),"ddd")</f>
+        <f t="shared" si="15"/>
         <v>Mon</v>
       </c>
       <c r="D449" s="7" t="s">
@@ -14297,11 +14297,11 @@
         <v>44900</v>
       </c>
       <c r="B450" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>50</v>
       </c>
       <c r="C450" s="7" t="str">
-        <f>TEXT(WEEKDAY(A450),"ddd")</f>
+        <f t="shared" ref="C450:C499" si="17">TEXT(WEEKDAY(A450),"ddd")</f>
         <v>Mon</v>
       </c>
       <c r="D450" s="7" t="s">
@@ -14327,11 +14327,11 @@
         <v>44901</v>
       </c>
       <c r="B451" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>50</v>
       </c>
       <c r="C451" s="7" t="str">
-        <f>TEXT(WEEKDAY(A451),"ddd")</f>
+        <f t="shared" si="17"/>
         <v>Tue</v>
       </c>
       <c r="D451" s="7" t="s">
@@ -14356,11 +14356,11 @@
         <v>44901</v>
       </c>
       <c r="B452" s="7">
-        <f t="shared" ref="B452:B499" si="7">WEEKNUM(A452)</f>
+        <f t="shared" ref="B452:B499" si="18">WEEKNUM(A452)</f>
         <v>50</v>
       </c>
       <c r="C452" s="7" t="str">
-        <f>TEXT(WEEKDAY(A452),"ddd")</f>
+        <f t="shared" si="17"/>
         <v>Tue</v>
       </c>
       <c r="D452" s="7" t="s">
@@ -14385,11 +14385,11 @@
         <v>44901</v>
       </c>
       <c r="B453" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
       <c r="C453" s="7" t="str">
-        <f>TEXT(WEEKDAY(A453),"ddd")</f>
+        <f t="shared" si="17"/>
         <v>Tue</v>
       </c>
       <c r="D453" s="7" t="s">
@@ -14414,11 +14414,11 @@
         <v>44903</v>
       </c>
       <c r="B454" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
       <c r="C454" s="7" t="str">
-        <f>TEXT(WEEKDAY(A454),"ddd")</f>
+        <f t="shared" si="17"/>
         <v>Thu</v>
       </c>
       <c r="D454" s="7" t="s">
@@ -14443,11 +14443,11 @@
         <v>44904</v>
       </c>
       <c r="B455" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
       <c r="C455" s="7" t="str">
-        <f>TEXT(WEEKDAY(A455),"ddd")</f>
+        <f t="shared" si="17"/>
         <v>Fri</v>
       </c>
       <c r="D455" s="7" t="s">
@@ -14472,11 +14472,11 @@
         <v>44904</v>
       </c>
       <c r="B456" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
       <c r="C456" s="7" t="str">
-        <f>TEXT(WEEKDAY(A456),"ddd")</f>
+        <f t="shared" si="17"/>
         <v>Fri</v>
       </c>
       <c r="D456" s="7" t="s">
@@ -14502,11 +14502,11 @@
         <v>44904</v>
       </c>
       <c r="B457" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
       <c r="C457" s="7" t="str">
-        <f>TEXT(WEEKDAY(A457),"ddd")</f>
+        <f t="shared" si="17"/>
         <v>Fri</v>
       </c>
       <c r="D457" s="7" t="s">
@@ -14532,11 +14532,11 @@
         <v>44904</v>
       </c>
       <c r="B458" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
       <c r="C458" s="7" t="str">
-        <f>TEXT(WEEKDAY(A458),"ddd")</f>
+        <f t="shared" si="17"/>
         <v>Fri</v>
       </c>
       <c r="D458" s="7" t="s">
@@ -14562,11 +14562,11 @@
         <v>44905</v>
       </c>
       <c r="B459" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
       <c r="C459" s="7" t="str">
-        <f>TEXT(WEEKDAY(A459),"ddd")</f>
+        <f t="shared" si="17"/>
         <v>Sat</v>
       </c>
       <c r="D459" s="7" t="s">
@@ -14591,11 +14591,11 @@
         <v>44906</v>
       </c>
       <c r="B460" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>51</v>
       </c>
       <c r="C460" s="7" t="str">
-        <f>TEXT(WEEKDAY(A460),"ddd")</f>
+        <f t="shared" si="17"/>
         <v>Sun</v>
       </c>
       <c r="D460" s="7" t="s">
@@ -14620,11 +14620,11 @@
         <v>44907</v>
       </c>
       <c r="B461" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>51</v>
       </c>
       <c r="C461" s="7" t="str">
-        <f>TEXT(WEEKDAY(A461),"ddd")</f>
+        <f t="shared" si="17"/>
         <v>Mon</v>
       </c>
       <c r="D461" s="7" t="s">
@@ -14649,11 +14649,11 @@
         <v>44907</v>
       </c>
       <c r="B462" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>51</v>
       </c>
       <c r="C462" s="7" t="str">
-        <f>TEXT(WEEKDAY(A462),"ddd")</f>
+        <f t="shared" si="17"/>
         <v>Mon</v>
       </c>
       <c r="D462" s="7" t="s">
@@ -14679,11 +14679,11 @@
         <v>44907</v>
       </c>
       <c r="B463" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>51</v>
       </c>
       <c r="C463" s="7" t="str">
-        <f>TEXT(WEEKDAY(A463),"ddd")</f>
+        <f t="shared" si="17"/>
         <v>Mon</v>
       </c>
       <c r="D463" s="7" t="s">
@@ -14709,11 +14709,11 @@
         <v>44910</v>
       </c>
       <c r="B464" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>51</v>
       </c>
       <c r="C464" s="7" t="str">
-        <f>TEXT(WEEKDAY(A464),"ddd")</f>
+        <f t="shared" si="17"/>
         <v>Thu</v>
       </c>
       <c r="D464" s="7" t="s">
@@ -14738,11 +14738,11 @@
         <v>44911</v>
       </c>
       <c r="B465" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>51</v>
       </c>
       <c r="C465" s="7" t="str">
-        <f>TEXT(WEEKDAY(A465),"ddd")</f>
+        <f t="shared" si="17"/>
         <v>Fri</v>
       </c>
       <c r="D465" s="7" t="s">
@@ -14768,11 +14768,11 @@
         <v>44911</v>
       </c>
       <c r="B466" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>51</v>
       </c>
       <c r="C466" s="7" t="str">
-        <f>TEXT(WEEKDAY(A466),"ddd")</f>
+        <f t="shared" si="17"/>
         <v>Fri</v>
       </c>
       <c r="D466" s="7" t="s">
@@ -14797,11 +14797,11 @@
         <v>44911</v>
       </c>
       <c r="B467" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>51</v>
       </c>
       <c r="C467" s="7" t="str">
-        <f>TEXT(WEEKDAY(A467),"ddd")</f>
+        <f t="shared" si="17"/>
         <v>Fri</v>
       </c>
       <c r="D467" s="7" t="s">
@@ -14826,11 +14826,11 @@
         <v>44912</v>
       </c>
       <c r="B468" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>51</v>
       </c>
       <c r="C468" s="7" t="str">
-        <f>TEXT(WEEKDAY(A468),"ddd")</f>
+        <f t="shared" si="17"/>
         <v>Sat</v>
       </c>
       <c r="D468" s="7" t="s">
@@ -14856,11 +14856,11 @@
         <v>44912</v>
       </c>
       <c r="B469" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>51</v>
       </c>
       <c r="C469" s="7" t="str">
-        <f>TEXT(WEEKDAY(A469),"ddd")</f>
+        <f t="shared" si="17"/>
         <v>Sat</v>
       </c>
       <c r="D469" s="7" t="s">
@@ -14886,11 +14886,11 @@
         <v>44912</v>
       </c>
       <c r="B470" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>51</v>
       </c>
       <c r="C470" s="7" t="str">
-        <f>TEXT(WEEKDAY(A470),"ddd")</f>
+        <f t="shared" si="17"/>
         <v>Sat</v>
       </c>
       <c r="D470" s="7" t="s">
@@ -14915,11 +14915,11 @@
         <v>44912</v>
       </c>
       <c r="B471" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>51</v>
       </c>
       <c r="C471" s="7" t="str">
-        <f>TEXT(WEEKDAY(A471),"ddd")</f>
+        <f t="shared" si="17"/>
         <v>Sat</v>
       </c>
       <c r="D471" s="7" t="s">
@@ -14944,11 +14944,11 @@
         <v>44915</v>
       </c>
       <c r="B472" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>52</v>
       </c>
       <c r="C472" s="7" t="str">
-        <f>TEXT(WEEKDAY(A472),"ddd")</f>
+        <f t="shared" si="17"/>
         <v>Tue</v>
       </c>
       <c r="D472" s="7" t="s">
@@ -14973,11 +14973,11 @@
         <v>44915</v>
       </c>
       <c r="B473" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>52</v>
       </c>
       <c r="C473" s="7" t="str">
-        <f>TEXT(WEEKDAY(A473),"ddd")</f>
+        <f t="shared" si="17"/>
         <v>Tue</v>
       </c>
       <c r="D473" s="7" t="s">
@@ -15002,11 +15002,11 @@
         <v>44915</v>
       </c>
       <c r="B474" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>52</v>
       </c>
       <c r="C474" s="7" t="str">
-        <f>TEXT(WEEKDAY(A474),"ddd")</f>
+        <f t="shared" si="17"/>
         <v>Tue</v>
       </c>
       <c r="D474" s="7" t="s">
@@ -15031,11 +15031,11 @@
         <v>44916</v>
       </c>
       <c r="B475" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>52</v>
       </c>
       <c r="C475" s="7" t="str">
-        <f>TEXT(WEEKDAY(A475),"ddd")</f>
+        <f t="shared" si="17"/>
         <v>Wed</v>
       </c>
       <c r="D475" s="7" t="s">
@@ -15060,11 +15060,11 @@
         <v>44916</v>
       </c>
       <c r="B476" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>52</v>
       </c>
       <c r="C476" s="7" t="str">
-        <f>TEXT(WEEKDAY(A476),"ddd")</f>
+        <f t="shared" si="17"/>
         <v>Wed</v>
       </c>
       <c r="D476" s="7" t="s">
@@ -15089,11 +15089,11 @@
         <v>44917</v>
       </c>
       <c r="B477" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>52</v>
       </c>
       <c r="C477" s="7" t="str">
-        <f>TEXT(WEEKDAY(A477),"ddd")</f>
+        <f t="shared" si="17"/>
         <v>Thu</v>
       </c>
       <c r="D477" s="7" t="s">
@@ -15106,7 +15106,7 @@
         <v>13</v>
       </c>
       <c r="G477" s="7" t="str">
-        <f>D477</f>
+        <f t="shared" ref="G477:G482" si="19">D477</f>
         <v>Tesco</v>
       </c>
       <c r="H477" s="7" t="s">
@@ -15119,11 +15119,11 @@
         <v>44918</v>
       </c>
       <c r="B478" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>52</v>
       </c>
       <c r="C478" s="7" t="str">
-        <f>TEXT(WEEKDAY(A478),"ddd")</f>
+        <f t="shared" si="17"/>
         <v>Fri</v>
       </c>
       <c r="D478" s="7" t="s">
@@ -15136,7 +15136,7 @@
         <v>13</v>
       </c>
       <c r="G478" s="7" t="str">
-        <f>D478</f>
+        <f t="shared" si="19"/>
         <v>Tesco</v>
       </c>
       <c r="H478" s="7" t="s">
@@ -15149,11 +15149,11 @@
         <v>44918</v>
       </c>
       <c r="B479" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>52</v>
       </c>
       <c r="C479" s="7" t="str">
-        <f>TEXT(WEEKDAY(A479),"ddd")</f>
+        <f t="shared" si="17"/>
         <v>Fri</v>
       </c>
       <c r="D479" s="7" t="s">
@@ -15166,7 +15166,7 @@
         <v>13</v>
       </c>
       <c r="G479" s="7" t="str">
-        <f>D479</f>
+        <f t="shared" si="19"/>
         <v>Rahmans</v>
       </c>
       <c r="H479" s="7" t="s">
@@ -15179,11 +15179,11 @@
         <v>44918</v>
       </c>
       <c r="B480" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>52</v>
       </c>
       <c r="C480" s="7" t="str">
-        <f>TEXT(WEEKDAY(A480),"ddd")</f>
+        <f t="shared" si="17"/>
         <v>Fri</v>
       </c>
       <c r="D480" s="7" t="s">
@@ -15196,7 +15196,7 @@
         <v>198</v>
       </c>
       <c r="G480" s="7" t="str">
-        <f>D480</f>
+        <f t="shared" si="19"/>
         <v>Smarty</v>
       </c>
       <c r="H480" s="7" t="s">
@@ -15209,11 +15209,11 @@
         <v>44919</v>
       </c>
       <c r="B481" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>52</v>
       </c>
       <c r="C481" s="7" t="str">
-        <f>TEXT(WEEKDAY(A481),"ddd")</f>
+        <f t="shared" si="17"/>
         <v>Sat</v>
       </c>
       <c r="D481" s="7" t="s">
@@ -15226,7 +15226,7 @@
         <v>13</v>
       </c>
       <c r="G481" s="7" t="str">
-        <f>D481</f>
+        <f t="shared" si="19"/>
         <v>Aihua</v>
       </c>
       <c r="H481" s="7" t="s">
@@ -15239,11 +15239,11 @@
         <v>44919</v>
       </c>
       <c r="B482" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>52</v>
       </c>
       <c r="C482" s="7" t="str">
-        <f>TEXT(WEEKDAY(A482),"ddd")</f>
+        <f t="shared" si="17"/>
         <v>Sat</v>
       </c>
       <c r="D482" s="7" t="s">
@@ -15256,7 +15256,7 @@
         <v>13</v>
       </c>
       <c r="G482" s="7" t="str">
-        <f>D482</f>
+        <f t="shared" si="19"/>
         <v>Rahmans</v>
       </c>
       <c r="H482" s="7" t="s">
@@ -15269,11 +15269,11 @@
         <v>44920</v>
       </c>
       <c r="B483" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>53</v>
       </c>
       <c r="C483" s="7" t="str">
-        <f>TEXT(WEEKDAY(A483),"ddd")</f>
+        <f t="shared" si="17"/>
         <v>Sun</v>
       </c>
       <c r="D483" s="7" t="s">
@@ -15298,11 +15298,11 @@
         <v>44920</v>
       </c>
       <c r="B484" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>53</v>
       </c>
       <c r="C484" s="7" t="str">
-        <f>TEXT(WEEKDAY(A484),"ddd")</f>
+        <f t="shared" si="17"/>
         <v>Sun</v>
       </c>
       <c r="D484" s="7" t="s">
@@ -15327,11 +15327,11 @@
         <v>44920</v>
       </c>
       <c r="B485" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>53</v>
       </c>
       <c r="C485" s="7" t="str">
-        <f>TEXT(WEEKDAY(A485),"ddd")</f>
+        <f t="shared" si="17"/>
         <v>Sun</v>
       </c>
       <c r="D485" s="7" t="s">
@@ -15356,11 +15356,11 @@
         <v>44921</v>
       </c>
       <c r="B486" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>53</v>
       </c>
       <c r="C486" s="7" t="str">
-        <f>TEXT(WEEKDAY(A486),"ddd")</f>
+        <f t="shared" si="17"/>
         <v>Mon</v>
       </c>
       <c r="D486" s="7" t="s">
@@ -15385,11 +15385,11 @@
         <v>44922</v>
       </c>
       <c r="B487" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>53</v>
       </c>
       <c r="C487" s="7" t="str">
-        <f>TEXT(WEEKDAY(A487),"ddd")</f>
+        <f t="shared" si="17"/>
         <v>Tue</v>
       </c>
       <c r="D487" s="7" t="s">
@@ -15414,11 +15414,11 @@
         <v>44922</v>
       </c>
       <c r="B488" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>53</v>
       </c>
       <c r="C488" s="7" t="str">
-        <f>TEXT(WEEKDAY(A488),"ddd")</f>
+        <f t="shared" si="17"/>
         <v>Tue</v>
       </c>
       <c r="D488" s="7" t="s">
@@ -15443,11 +15443,11 @@
         <v>44922</v>
       </c>
       <c r="B489" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>53</v>
       </c>
       <c r="C489" s="7" t="str">
-        <f>TEXT(WEEKDAY(A489),"ddd")</f>
+        <f t="shared" si="17"/>
         <v>Tue</v>
       </c>
       <c r="D489" s="7" t="s">
@@ -15472,11 +15472,11 @@
         <v>44922</v>
       </c>
       <c r="B490" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>53</v>
       </c>
       <c r="C490" s="7" t="str">
-        <f>TEXT(WEEKDAY(A490),"ddd")</f>
+        <f t="shared" si="17"/>
         <v>Tue</v>
       </c>
       <c r="D490" s="7" t="s">
@@ -15501,11 +15501,11 @@
         <v>44922</v>
       </c>
       <c r="B491" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>53</v>
       </c>
       <c r="C491" s="7" t="str">
-        <f>TEXT(WEEKDAY(A491),"ddd")</f>
+        <f t="shared" si="17"/>
         <v>Tue</v>
       </c>
       <c r="D491" s="7" t="s">
@@ -15530,11 +15530,11 @@
         <v>44922</v>
       </c>
       <c r="B492" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>53</v>
       </c>
       <c r="C492" s="7" t="str">
-        <f>TEXT(WEEKDAY(A492),"ddd")</f>
+        <f t="shared" si="17"/>
         <v>Tue</v>
       </c>
       <c r="D492" s="7" t="s">
@@ -15560,11 +15560,11 @@
         <v>44923</v>
       </c>
       <c r="B493" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>53</v>
       </c>
       <c r="C493" s="7" t="str">
-        <f>TEXT(WEEKDAY(A493),"ddd")</f>
+        <f t="shared" si="17"/>
         <v>Wed</v>
       </c>
       <c r="D493" s="7" t="s">
@@ -15589,11 +15589,11 @@
         <v>44923</v>
       </c>
       <c r="B494" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>53</v>
       </c>
       <c r="C494" s="7" t="str">
-        <f>TEXT(WEEKDAY(A494),"ddd")</f>
+        <f t="shared" si="17"/>
         <v>Wed</v>
       </c>
       <c r="D494" s="7" t="s">
@@ -15618,11 +15618,11 @@
         <v>44923</v>
       </c>
       <c r="B495" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>53</v>
       </c>
       <c r="C495" s="7" t="str">
-        <f>TEXT(WEEKDAY(A495),"ddd")</f>
+        <f t="shared" si="17"/>
         <v>Wed</v>
       </c>
       <c r="D495" s="7" t="s">
@@ -15647,11 +15647,11 @@
         <v>44924</v>
       </c>
       <c r="B496" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>53</v>
       </c>
       <c r="C496" s="7" t="str">
-        <f>TEXT(WEEKDAY(A496),"ddd")</f>
+        <f t="shared" si="17"/>
         <v>Thu</v>
       </c>
       <c r="D496" s="7" t="s">
@@ -15676,11 +15676,11 @@
         <v>44925</v>
       </c>
       <c r="B497" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>53</v>
       </c>
       <c r="C497" s="7" t="str">
-        <f>TEXT(WEEKDAY(A497),"ddd")</f>
+        <f t="shared" si="17"/>
         <v>Fri</v>
       </c>
       <c r="D497" s="7" t="s">
@@ -15706,11 +15706,11 @@
         <v>44925</v>
       </c>
       <c r="B498" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>53</v>
       </c>
       <c r="C498" s="7" t="str">
-        <f>TEXT(WEEKDAY(A498),"ddd")</f>
+        <f t="shared" si="17"/>
         <v>Fri</v>
       </c>
       <c r="D498" s="7" t="s">
@@ -15735,11 +15735,11 @@
         <v>44926</v>
       </c>
       <c r="B499" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>53</v>
       </c>
       <c r="C499" s="7" t="str">
-        <f>TEXT(WEEKDAY(A499),"ddd")</f>
+        <f t="shared" si="17"/>
         <v>Sat</v>
       </c>
       <c r="D499" s="7" t="s">
